--- a/filesToRead/Parâmetros de aprovação - Pharmaesthetics v23.xlsx
+++ b/filesToRead/Parâmetros de aprovação - Pharmaesthetics v23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VISUM\sf-massive\filesToRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF58F8-A24E-4B63-B2CD-0CF53AA2D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE5F32B-677C-46FB-94E5-69A6217497B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94D39F17-E4C0-4804-BF35-E02219D60F3A}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>PR0036</t>
-  </si>
-  <si>
     <t>PR0037</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>Porcentagem de desconto mínima</t>
+  </si>
+  <si>
+    <t>BUNDLE01</t>
   </si>
 </sst>
 </file>
@@ -794,13 +794,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0369797-3A5F-4311-8564-D70473737AC2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L804"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="E781" sqref="E781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -836,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>7</v>
@@ -845,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" hidden="1">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -875,7 +876,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" hidden="1">
       <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
@@ -905,7 +906,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" hidden="1">
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
@@ -935,7 +936,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" hidden="1">
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
@@ -965,7 +966,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" hidden="1">
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
@@ -995,7 +996,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" hidden="1">
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1026,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" hidden="1">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1056,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" hidden="1">
       <c r="B10" s="23" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" hidden="1">
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1116,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" hidden="1">
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1146,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" hidden="1">
       <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
@@ -1175,7 +1176,7 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" hidden="1">
       <c r="B14" s="23" t="s">
         <v>13</v>
       </c>
@@ -1205,7 +1206,7 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" hidden="1">
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1236,7 @@
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" hidden="1">
       <c r="B16" s="23" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1266,7 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" hidden="1">
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1296,7 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" hidden="1">
       <c r="B18" s="23" t="s">
         <v>14</v>
       </c>
@@ -1325,7 +1326,7 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" hidden="1">
       <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
@@ -1355,7 +1356,7 @@
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" hidden="1">
       <c r="B20" s="23" t="s">
         <v>14</v>
       </c>
@@ -1385,7 +1386,7 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" hidden="1">
       <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
@@ -1415,7 +1416,7 @@
       </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" hidden="1">
       <c r="B22" s="23" t="s">
         <v>15</v>
       </c>
@@ -1445,9 +1446,9 @@
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" hidden="1">
       <c r="B23" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>54</v>
@@ -1475,9 +1476,9 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" hidden="1">
       <c r="B24" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>54</v>
@@ -1505,9 +1506,9 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" hidden="1">
       <c r="B25" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>54</v>
@@ -1535,9 +1536,9 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" hidden="1">
       <c r="B26" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>54</v>
@@ -1565,9 +1566,9 @@
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" hidden="1">
       <c r="B27" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>54</v>
@@ -1595,9 +1596,9 @@
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" hidden="1">
       <c r="B28" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>54</v>
@@ -1625,9 +1626,9 @@
       </c>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" hidden="1">
       <c r="B29" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>54</v>
@@ -1655,9 +1656,9 @@
       </c>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" hidden="1">
       <c r="B30" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>54</v>
@@ -1685,9 +1686,9 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" hidden="1">
       <c r="B31" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>54</v>
@@ -1715,9 +1716,9 @@
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" hidden="1">
       <c r="B32" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>54</v>
@@ -1745,9 +1746,9 @@
       </c>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1">
       <c r="B33" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>54</v>
@@ -1775,9 +1776,9 @@
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="B34" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>54</v>
@@ -1805,9 +1806,9 @@
       </c>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="B35" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>54</v>
@@ -1835,9 +1836,9 @@
       </c>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1">
       <c r="B36" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>54</v>
@@ -1865,9 +1866,9 @@
       </c>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1">
       <c r="B37" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>54</v>
@@ -1895,9 +1896,9 @@
       </c>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1">
       <c r="B38" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>54</v>
@@ -1925,9 +1926,9 @@
       </c>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1">
       <c r="B39" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>54</v>
@@ -1955,9 +1956,9 @@
       </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1">
       <c r="B40" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>54</v>
@@ -1985,9 +1986,9 @@
       </c>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1">
       <c r="B41" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>54</v>
@@ -2015,9 +2016,9 @@
       </c>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="B42" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>54</v>
@@ -2045,7 +2046,7 @@
       </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" s="5" customFormat="1">
+    <row r="43" spans="1:12" s="5" customFormat="1" hidden="1">
       <c r="A43"/>
       <c r="B43" s="7" t="s">
         <v>16</v>
@@ -2075,7 +2076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="5" customFormat="1">
+    <row r="44" spans="1:12" s="5" customFormat="1" hidden="1">
       <c r="A44"/>
       <c r="B44" s="2" t="s">
         <v>16</v>
@@ -2105,7 +2106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="5" customFormat="1">
+    <row r="45" spans="1:12" s="5" customFormat="1" hidden="1">
       <c r="A45"/>
       <c r="B45" s="7" t="s">
         <v>16</v>
@@ -2135,7 +2136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="5" customFormat="1">
+    <row r="46" spans="1:12" s="5" customFormat="1" hidden="1">
       <c r="A46"/>
       <c r="B46" s="2" t="s">
         <v>16</v>
@@ -2165,7 +2166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="5" customFormat="1">
+    <row r="47" spans="1:12" s="5" customFormat="1" hidden="1">
       <c r="A47"/>
       <c r="B47" s="7" t="s">
         <v>16</v>
@@ -2195,7 +2196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="5" customFormat="1">
+    <row r="48" spans="1:12" s="5" customFormat="1" hidden="1">
       <c r="A48"/>
       <c r="B48" s="2" t="s">
         <v>16</v>
@@ -2225,7 +2226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="5" customFormat="1">
+    <row r="49" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A49"/>
       <c r="B49" s="7" t="s">
         <v>17</v>
@@ -2255,7 +2256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="5" customFormat="1">
+    <row r="50" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A50"/>
       <c r="B50" s="2" t="s">
         <v>17</v>
@@ -2285,7 +2286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="5" customFormat="1">
+    <row r="51" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A51"/>
       <c r="B51" s="7" t="s">
         <v>17</v>
@@ -2315,7 +2316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="5" customFormat="1">
+    <row r="52" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A52"/>
       <c r="B52" s="2" t="s">
         <v>17</v>
@@ -2345,7 +2346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="5" customFormat="1">
+    <row r="53" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A53"/>
       <c r="B53" s="7" t="s">
         <v>17</v>
@@ -2375,7 +2376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="5" customFormat="1">
+    <row r="54" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A54"/>
       <c r="B54" s="2" t="s">
         <v>17</v>
@@ -2405,7 +2406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="5" customFormat="1">
+    <row r="55" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A55"/>
       <c r="B55" s="7" t="s">
         <v>18</v>
@@ -2435,7 +2436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="5" customFormat="1">
+    <row r="56" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A56"/>
       <c r="B56" s="2" t="s">
         <v>18</v>
@@ -2465,7 +2466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="5" customFormat="1">
+    <row r="57" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A57"/>
       <c r="B57" s="7" t="s">
         <v>18</v>
@@ -2495,7 +2496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="5" customFormat="1">
+    <row r="58" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A58"/>
       <c r="B58" s="2" t="s">
         <v>18</v>
@@ -2525,7 +2526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="5" customFormat="1">
+    <row r="59" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A59"/>
       <c r="B59" s="7" t="s">
         <v>18</v>
@@ -2555,7 +2556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="5" customFormat="1">
+    <row r="60" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A60"/>
       <c r="B60" s="2" t="s">
         <v>18</v>
@@ -2585,7 +2586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="5" customFormat="1">
+    <row r="61" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A61"/>
       <c r="B61" s="7" t="s">
         <v>19</v>
@@ -2615,7 +2616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="5" customFormat="1">
+    <row r="62" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A62"/>
       <c r="B62" s="2" t="s">
         <v>19</v>
@@ -2645,7 +2646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="5" customFormat="1">
+    <row r="63" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A63"/>
       <c r="B63" s="7" t="s">
         <v>19</v>
@@ -2675,7 +2676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="5" customFormat="1">
+    <row r="64" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A64"/>
       <c r="B64" s="2" t="s">
         <v>19</v>
@@ -2705,7 +2706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="5" customFormat="1">
+    <row r="65" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A65"/>
       <c r="B65" s="7" t="s">
         <v>19</v>
@@ -2735,7 +2736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="5" customFormat="1">
+    <row r="66" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A66"/>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -2765,7 +2766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="5" customFormat="1">
+    <row r="67" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A67"/>
       <c r="B67" s="7" t="s">
         <v>20</v>
@@ -2795,7 +2796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="5" customFormat="1">
+    <row r="68" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A68"/>
       <c r="B68" s="2" t="s">
         <v>20</v>
@@ -2825,7 +2826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="5" customFormat="1">
+    <row r="69" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A69"/>
       <c r="B69" s="7" t="s">
         <v>20</v>
@@ -2855,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="5" customFormat="1">
+    <row r="70" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A70"/>
       <c r="B70" s="2" t="s">
         <v>20</v>
@@ -2885,7 +2886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="5" customFormat="1">
+    <row r="71" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A71"/>
       <c r="B71" s="7" t="s">
         <v>20</v>
@@ -2915,7 +2916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="5" customFormat="1">
+    <row r="72" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A72"/>
       <c r="B72" s="2" t="s">
         <v>20</v>
@@ -2945,7 +2946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="5" customFormat="1">
+    <row r="73" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A73"/>
       <c r="B73" s="7" t="s">
         <v>21</v>
@@ -2975,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="5" customFormat="1">
+    <row r="74" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A74"/>
       <c r="B74" s="2" t="s">
         <v>21</v>
@@ -3005,7 +3006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="5" customFormat="1">
+    <row r="75" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A75"/>
       <c r="B75" s="7" t="s">
         <v>21</v>
@@ -3035,7 +3036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="5" customFormat="1">
+    <row r="76" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A76"/>
       <c r="B76" s="2" t="s">
         <v>21</v>
@@ -3065,7 +3066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="5" customFormat="1">
+    <row r="77" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A77"/>
       <c r="B77" s="7" t="s">
         <v>21</v>
@@ -3095,7 +3096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="5" customFormat="1">
+    <row r="78" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A78"/>
       <c r="B78" s="2" t="s">
         <v>21</v>
@@ -3125,7 +3126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="5" customFormat="1">
+    <row r="79" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A79"/>
       <c r="B79" s="7" t="s">
         <v>22</v>
@@ -3155,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="5" customFormat="1">
+    <row r="80" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A80"/>
       <c r="B80" s="2" t="s">
         <v>22</v>
@@ -3185,7 +3186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="5" customFormat="1">
+    <row r="81" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A81"/>
       <c r="B81" s="7" t="s">
         <v>22</v>
@@ -3215,7 +3216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="5" customFormat="1">
+    <row r="82" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A82"/>
       <c r="B82" s="2" t="s">
         <v>22</v>
@@ -3245,7 +3246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="5" customFormat="1">
+    <row r="83" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A83"/>
       <c r="B83" s="7" t="s">
         <v>22</v>
@@ -3275,7 +3276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="5" customFormat="1">
+    <row r="84" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A84"/>
       <c r="B84" s="2" t="s">
         <v>22</v>
@@ -3305,7 +3306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="5" customFormat="1">
+    <row r="85" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A85"/>
       <c r="B85" s="7" t="s">
         <v>23</v>
@@ -3335,7 +3336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="5" customFormat="1">
+    <row r="86" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A86"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
@@ -3365,7 +3366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="5" customFormat="1">
+    <row r="87" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A87"/>
       <c r="B87" s="7" t="s">
         <v>23</v>
@@ -3395,7 +3396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="5" customFormat="1">
+    <row r="88" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A88"/>
       <c r="B88" s="2" t="s">
         <v>23</v>
@@ -3425,7 +3426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="5" customFormat="1">
+    <row r="89" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A89"/>
       <c r="B89" s="7" t="s">
         <v>23</v>
@@ -3455,7 +3456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="5" customFormat="1">
+    <row r="90" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A90"/>
       <c r="B90" s="2" t="s">
         <v>23</v>
@@ -3485,7 +3486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="5" customFormat="1">
+    <row r="91" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A91"/>
       <c r="B91" s="7" t="s">
         <v>24</v>
@@ -3515,7 +3516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="5" customFormat="1">
+    <row r="92" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A92"/>
       <c r="B92" s="2" t="s">
         <v>24</v>
@@ -3545,7 +3546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="5" customFormat="1">
+    <row r="93" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A93"/>
       <c r="B93" s="7" t="s">
         <v>24</v>
@@ -3575,7 +3576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="5" customFormat="1">
+    <row r="94" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A94"/>
       <c r="B94" s="2" t="s">
         <v>24</v>
@@ -3605,7 +3606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="5" customFormat="1">
+    <row r="95" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A95"/>
       <c r="B95" s="7" t="s">
         <v>24</v>
@@ -3635,7 +3636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="5" customFormat="1">
+    <row r="96" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A96"/>
       <c r="B96" s="2" t="s">
         <v>24</v>
@@ -3665,7 +3666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="5" customFormat="1">
+    <row r="97" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A97"/>
       <c r="B97" s="7" t="s">
         <v>25</v>
@@ -3695,7 +3696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="5" customFormat="1">
+    <row r="98" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A98"/>
       <c r="B98" s="2" t="s">
         <v>25</v>
@@ -3725,7 +3726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="5" customFormat="1">
+    <row r="99" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A99"/>
       <c r="B99" s="7" t="s">
         <v>25</v>
@@ -3755,7 +3756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="5" customFormat="1">
+    <row r="100" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A100"/>
       <c r="B100" s="2" t="s">
         <v>25</v>
@@ -3785,7 +3786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="5" customFormat="1">
+    <row r="101" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A101"/>
       <c r="B101" s="7" t="s">
         <v>25</v>
@@ -3815,7 +3816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="5" customFormat="1">
+    <row r="102" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A102"/>
       <c r="B102" s="2" t="s">
         <v>25</v>
@@ -3845,7 +3846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="5" customFormat="1">
+    <row r="103" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A103"/>
       <c r="B103" s="7" t="s">
         <v>26</v>
@@ -3875,7 +3876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="5" customFormat="1">
+    <row r="104" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A104"/>
       <c r="B104" s="2" t="s">
         <v>26</v>
@@ -3905,7 +3906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="5" customFormat="1">
+    <row r="105" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A105"/>
       <c r="B105" s="7" t="s">
         <v>26</v>
@@ -3935,7 +3936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="5" customFormat="1">
+    <row r="106" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A106"/>
       <c r="B106" s="2" t="s">
         <v>26</v>
@@ -3965,7 +3966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="5" customFormat="1">
+    <row r="107" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A107"/>
       <c r="B107" s="7" t="s">
         <v>26</v>
@@ -3995,7 +3996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="5" customFormat="1">
+    <row r="108" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A108"/>
       <c r="B108" s="2" t="s">
         <v>26</v>
@@ -4025,7 +4026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="5" customFormat="1">
+    <row r="109" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A109"/>
       <c r="B109" s="7" t="s">
         <v>27</v>
@@ -4055,7 +4056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="5" customFormat="1">
+    <row r="110" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A110"/>
       <c r="B110" s="2" t="s">
         <v>27</v>
@@ -4085,7 +4086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="5" customFormat="1">
+    <row r="111" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A111"/>
       <c r="B111" s="7" t="s">
         <v>27</v>
@@ -4115,7 +4116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="5" customFormat="1">
+    <row r="112" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A112"/>
       <c r="B112" s="2" t="s">
         <v>27</v>
@@ -4145,7 +4146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="5" customFormat="1">
+    <row r="113" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A113"/>
       <c r="B113" s="7" t="s">
         <v>27</v>
@@ -4175,7 +4176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="5" customFormat="1">
+    <row r="114" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A114"/>
       <c r="B114" s="2" t="s">
         <v>27</v>
@@ -4205,7 +4206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="5" customFormat="1">
+    <row r="115" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A115"/>
       <c r="B115" s="7" t="s">
         <v>28</v>
@@ -4235,7 +4236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="5" customFormat="1">
+    <row r="116" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A116"/>
       <c r="B116" s="2" t="s">
         <v>28</v>
@@ -4265,7 +4266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="5" customFormat="1">
+    <row r="117" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A117"/>
       <c r="B117" s="7" t="s">
         <v>28</v>
@@ -4295,7 +4296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="5" customFormat="1">
+    <row r="118" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A118"/>
       <c r="B118" s="2" t="s">
         <v>28</v>
@@ -4325,7 +4326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="5" customFormat="1">
+    <row r="119" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A119"/>
       <c r="B119" s="7" t="s">
         <v>28</v>
@@ -4355,7 +4356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="5" customFormat="1">
+    <row r="120" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A120"/>
       <c r="B120" s="2" t="s">
         <v>28</v>
@@ -4385,7 +4386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="5" customFormat="1">
+    <row r="121" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A121"/>
       <c r="B121" s="7" t="s">
         <v>29</v>
@@ -4415,7 +4416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="5" customFormat="1">
+    <row r="122" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A122"/>
       <c r="B122" s="2" t="s">
         <v>29</v>
@@ -4445,7 +4446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="5" customFormat="1">
+    <row r="123" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A123"/>
       <c r="B123" s="7" t="s">
         <v>29</v>
@@ -4475,7 +4476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="5" customFormat="1">
+    <row r="124" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A124"/>
       <c r="B124" s="2" t="s">
         <v>29</v>
@@ -4505,7 +4506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="5" customFormat="1">
+    <row r="125" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A125"/>
       <c r="B125" s="7" t="s">
         <v>29</v>
@@ -4535,7 +4536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="5" customFormat="1">
+    <row r="126" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A126"/>
       <c r="B126" s="2" t="s">
         <v>29</v>
@@ -4565,7 +4566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="5" customFormat="1">
+    <row r="127" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A127"/>
       <c r="B127" s="7" t="s">
         <v>31</v>
@@ -4595,7 +4596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="5" customFormat="1">
+    <row r="128" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A128"/>
       <c r="B128" s="2" t="s">
         <v>31</v>
@@ -4625,7 +4626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="5" customFormat="1">
+    <row r="129" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A129"/>
       <c r="B129" s="7" t="s">
         <v>31</v>
@@ -4655,7 +4656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="5" customFormat="1">
+    <row r="130" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A130"/>
       <c r="B130" s="2" t="s">
         <v>31</v>
@@ -4685,7 +4686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="5" customFormat="1">
+    <row r="131" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A131"/>
       <c r="B131" s="7" t="s">
         <v>31</v>
@@ -4715,7 +4716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="5" customFormat="1">
+    <row r="132" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A132"/>
       <c r="B132" s="2" t="s">
         <v>31</v>
@@ -4745,7 +4746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="5" customFormat="1">
+    <row r="133" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A133"/>
       <c r="B133" s="7" t="s">
         <v>30</v>
@@ -4775,7 +4776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="5" customFormat="1">
+    <row r="134" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A134"/>
       <c r="B134" s="2" t="s">
         <v>30</v>
@@ -4805,7 +4806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="5" customFormat="1">
+    <row r="135" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A135"/>
       <c r="B135" s="7" t="s">
         <v>30</v>
@@ -4835,7 +4836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="5" customFormat="1">
+    <row r="136" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A136"/>
       <c r="B136" s="2" t="s">
         <v>30</v>
@@ -4865,7 +4866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="5" customFormat="1">
+    <row r="137" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A137"/>
       <c r="B137" s="7" t="s">
         <v>30</v>
@@ -4895,7 +4896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="5" customFormat="1">
+    <row r="138" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A138"/>
       <c r="B138" s="2" t="s">
         <v>30</v>
@@ -4925,7 +4926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="5" customFormat="1">
+    <row r="139" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A139"/>
       <c r="B139" s="7" t="s">
         <v>32</v>
@@ -4955,7 +4956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="5" customFormat="1">
+    <row r="140" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A140"/>
       <c r="B140" s="2" t="s">
         <v>32</v>
@@ -4985,7 +4986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="5" customFormat="1">
+    <row r="141" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A141"/>
       <c r="B141" s="7" t="s">
         <v>32</v>
@@ -5015,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="5" customFormat="1">
+    <row r="142" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A142"/>
       <c r="B142" s="2" t="s">
         <v>32</v>
@@ -5045,7 +5046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="5" customFormat="1">
+    <row r="143" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A143"/>
       <c r="B143" s="7" t="s">
         <v>32</v>
@@ -5075,7 +5076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="5" customFormat="1">
+    <row r="144" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A144"/>
       <c r="B144" s="2" t="s">
         <v>32</v>
@@ -5105,7 +5106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="5" customFormat="1">
+    <row r="145" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A145"/>
       <c r="B145" s="14" t="s">
         <v>50</v>
@@ -5135,7 +5136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="5" customFormat="1">
+    <row r="146" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A146"/>
       <c r="B146" s="14" t="s">
         <v>50</v>
@@ -5165,7 +5166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="5" customFormat="1">
+    <row r="147" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A147"/>
       <c r="B147" s="7" t="s">
         <v>51</v>
@@ -5195,7 +5196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="5" customFormat="1">
+    <row r="148" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A148"/>
       <c r="B148" s="2" t="s">
         <v>51</v>
@@ -5225,7 +5226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="5" customFormat="1">
+    <row r="149" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A149"/>
       <c r="B149" s="7" t="s">
         <v>52</v>
@@ -5255,7 +5256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="5" customFormat="1">
+    <row r="150" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A150"/>
       <c r="B150" s="2" t="s">
         <v>52</v>
@@ -5285,7 +5286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="5" customFormat="1">
+    <row r="151" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A151"/>
       <c r="B151" s="7" t="s">
         <v>53</v>
@@ -5315,7 +5316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="5" customFormat="1">
+    <row r="152" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A152"/>
       <c r="B152" s="2" t="s">
         <v>53</v>
@@ -5345,7 +5346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="5" customFormat="1">
+    <row r="153" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A153"/>
       <c r="B153" s="7" t="s">
         <v>12</v>
@@ -5375,7 +5376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:10" s="5" customFormat="1">
+    <row r="154" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A154"/>
       <c r="B154" s="2" t="s">
         <v>12</v>
@@ -5405,7 +5406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="5" customFormat="1">
+    <row r="155" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A155"/>
       <c r="B155" s="7" t="s">
         <v>13</v>
@@ -5435,7 +5436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="5" customFormat="1">
+    <row r="156" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A156"/>
       <c r="B156" s="2" t="s">
         <v>13</v>
@@ -5465,7 +5466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="5" customFormat="1">
+    <row r="157" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A157"/>
       <c r="B157" s="7" t="s">
         <v>14</v>
@@ -5495,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="5" customFormat="1">
+    <row r="158" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A158"/>
       <c r="B158" s="2" t="s">
         <v>14</v>
@@ -5525,7 +5526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="5" customFormat="1">
+    <row r="159" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A159"/>
       <c r="B159" s="7" t="s">
         <v>15</v>
@@ -5555,7 +5556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:10" s="5" customFormat="1">
+    <row r="160" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A160"/>
       <c r="B160" s="2" t="s">
         <v>15</v>
@@ -5585,10 +5586,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="5" customFormat="1">
+    <row r="161" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A161"/>
       <c r="B161" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>55</v>
@@ -5615,10 +5616,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="5" customFormat="1">
+    <row r="162" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A162"/>
       <c r="B162" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>55</v>
@@ -5645,10 +5646,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="5" customFormat="1">
+    <row r="163" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A163"/>
       <c r="B163" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>55</v>
@@ -5675,10 +5676,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:10" s="5" customFormat="1">
+    <row r="164" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A164"/>
       <c r="B164" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>55</v>
@@ -5705,10 +5706,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:10" s="5" customFormat="1">
+    <row r="165" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A165"/>
       <c r="B165" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C165" s="10" t="s">
         <v>55</v>
@@ -5735,10 +5736,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:10" s="5" customFormat="1">
+    <row r="166" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A166"/>
       <c r="B166" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>55</v>
@@ -5765,10 +5766,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:10" s="5" customFormat="1">
+    <row r="167" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A167"/>
       <c r="B167" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>55</v>
@@ -5795,10 +5796,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="5" customFormat="1">
+    <row r="168" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A168"/>
       <c r="B168" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C168" s="10" t="s">
         <v>55</v>
@@ -5825,7 +5826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="5" customFormat="1">
+    <row r="169" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A169"/>
       <c r="B169" s="7" t="s">
         <v>12</v>
@@ -5855,7 +5856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="5" customFormat="1">
+    <row r="170" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A170"/>
       <c r="B170" s="2" t="s">
         <v>12</v>
@@ -5885,7 +5886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="5" customFormat="1">
+    <row r="171" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A171"/>
       <c r="B171" s="7" t="s">
         <v>12</v>
@@ -5915,7 +5916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="5" customFormat="1">
+    <row r="172" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A172"/>
       <c r="B172" s="2" t="s">
         <v>12</v>
@@ -5945,7 +5946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="5" customFormat="1">
+    <row r="173" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A173"/>
       <c r="B173" s="7" t="s">
         <v>13</v>
@@ -5975,7 +5976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:10" s="5" customFormat="1">
+    <row r="174" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A174"/>
       <c r="B174" s="2" t="s">
         <v>13</v>
@@ -6005,7 +6006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:10" s="5" customFormat="1">
+    <row r="175" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A175"/>
       <c r="B175" s="7" t="s">
         <v>13</v>
@@ -6035,7 +6036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="5" customFormat="1">
+    <row r="176" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A176"/>
       <c r="B176" s="2" t="s">
         <v>13</v>
@@ -6065,7 +6066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="5" customFormat="1">
+    <row r="177" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A177"/>
       <c r="B177" s="7" t="s">
         <v>14</v>
@@ -6095,7 +6096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:10" s="5" customFormat="1">
+    <row r="178" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A178"/>
       <c r="B178" s="2" t="s">
         <v>14</v>
@@ -6125,7 +6126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="5" customFormat="1">
+    <row r="179" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A179"/>
       <c r="B179" s="7" t="s">
         <v>14</v>
@@ -6155,7 +6156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:10" s="5" customFormat="1">
+    <row r="180" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A180"/>
       <c r="B180" s="2" t="s">
         <v>14</v>
@@ -6185,7 +6186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:10" s="5" customFormat="1">
+    <row r="181" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A181"/>
       <c r="B181" s="7" t="s">
         <v>15</v>
@@ -6215,7 +6216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:10" s="5" customFormat="1">
+    <row r="182" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A182"/>
       <c r="B182" s="2" t="s">
         <v>15</v>
@@ -6245,7 +6246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="5" customFormat="1">
+    <row r="183" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A183"/>
       <c r="B183" s="7" t="s">
         <v>15</v>
@@ -6275,7 +6276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:10" s="5" customFormat="1">
+    <row r="184" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A184"/>
       <c r="B184" s="2" t="s">
         <v>15</v>
@@ -6305,10 +6306,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:10" s="5" customFormat="1">
+    <row r="185" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A185"/>
       <c r="B185" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C185" s="10" t="s">
         <v>55</v>
@@ -6335,10 +6336,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="5" customFormat="1">
+    <row r="186" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A186"/>
       <c r="B186" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C186" s="10" t="s">
         <v>55</v>
@@ -6365,10 +6366,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:10" s="5" customFormat="1">
+    <row r="187" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A187"/>
       <c r="B187" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C187" s="10" t="s">
         <v>55</v>
@@ -6395,10 +6396,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:10" s="5" customFormat="1">
+    <row r="188" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A188"/>
       <c r="B188" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C188" s="10" t="s">
         <v>55</v>
@@ -6425,10 +6426,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:10" s="5" customFormat="1">
+    <row r="189" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A189"/>
       <c r="B189" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C189" s="10" t="s">
         <v>55</v>
@@ -6455,10 +6456,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:10" s="5" customFormat="1">
+    <row r="190" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A190"/>
       <c r="B190" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C190" s="10" t="s">
         <v>55</v>
@@ -6485,10 +6486,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:10" s="5" customFormat="1">
+    <row r="191" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A191"/>
       <c r="B191" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C191" s="10" t="s">
         <v>55</v>
@@ -6515,10 +6516,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:10" s="5" customFormat="1">
+    <row r="192" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A192"/>
       <c r="B192" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C192" s="10" t="s">
         <v>55</v>
@@ -6545,10 +6546,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:10" s="5" customFormat="1">
+    <row r="193" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A193"/>
       <c r="B193" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C193" s="10" t="s">
         <v>55</v>
@@ -6575,10 +6576,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:10" s="5" customFormat="1">
+    <row r="194" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A194"/>
       <c r="B194" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C194" s="10" t="s">
         <v>55</v>
@@ -6605,10 +6606,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:10" s="5" customFormat="1">
+    <row r="195" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A195"/>
       <c r="B195" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C195" s="10" t="s">
         <v>55</v>
@@ -6635,10 +6636,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:10" s="5" customFormat="1">
+    <row r="196" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A196"/>
       <c r="B196" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>55</v>
@@ -6665,10 +6666,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="5" customFormat="1">
+    <row r="197" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A197"/>
       <c r="B197" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C197" s="10" t="s">
         <v>55</v>
@@ -6695,10 +6696,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="5" customFormat="1">
+    <row r="198" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A198"/>
       <c r="B198" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>55</v>
@@ -6725,10 +6726,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:10" s="5" customFormat="1">
+    <row r="199" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A199"/>
       <c r="B199" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>55</v>
@@ -6755,10 +6756,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:10" s="5" customFormat="1">
+    <row r="200" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A200"/>
       <c r="B200" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>55</v>
@@ -6785,7 +6786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:10" s="5" customFormat="1">
+    <row r="201" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A201"/>
       <c r="B201" s="7" t="s">
         <v>12</v>
@@ -6815,7 +6816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:10" s="5" customFormat="1">
+    <row r="202" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A202"/>
       <c r="B202" s="2" t="s">
         <v>12</v>
@@ -6845,7 +6846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:10" s="5" customFormat="1">
+    <row r="203" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A203"/>
       <c r="B203" s="7" t="s">
         <v>12</v>
@@ -6875,7 +6876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:10" s="5" customFormat="1">
+    <row r="204" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A204"/>
       <c r="B204" s="2" t="s">
         <v>12</v>
@@ -6905,7 +6906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:10" s="5" customFormat="1">
+    <row r="205" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A205"/>
       <c r="B205" s="7" t="s">
         <v>13</v>
@@ -6935,7 +6936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:10" s="5" customFormat="1">
+    <row r="206" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A206"/>
       <c r="B206" s="2" t="s">
         <v>13</v>
@@ -6965,7 +6966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:10" s="5" customFormat="1">
+    <row r="207" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A207"/>
       <c r="B207" s="7" t="s">
         <v>13</v>
@@ -6995,7 +6996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="5" customFormat="1">
+    <row r="208" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A208"/>
       <c r="B208" s="2" t="s">
         <v>13</v>
@@ -7025,7 +7026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:10" s="5" customFormat="1">
+    <row r="209" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A209"/>
       <c r="B209" s="7" t="s">
         <v>14</v>
@@ -7055,7 +7056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:10" s="5" customFormat="1">
+    <row r="210" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A210"/>
       <c r="B210" s="2" t="s">
         <v>14</v>
@@ -7085,7 +7086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:10" s="5" customFormat="1">
+    <row r="211" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A211"/>
       <c r="B211" s="7" t="s">
         <v>14</v>
@@ -7115,7 +7116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:10" s="5" customFormat="1">
+    <row r="212" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A212"/>
       <c r="B212" s="2" t="s">
         <v>14</v>
@@ -7145,7 +7146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:10" s="5" customFormat="1">
+    <row r="213" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A213"/>
       <c r="B213" s="7" t="s">
         <v>15</v>
@@ -7175,7 +7176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:10" s="5" customFormat="1">
+    <row r="214" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A214"/>
       <c r="B214" s="2" t="s">
         <v>15</v>
@@ -7205,7 +7206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:10" s="5" customFormat="1">
+    <row r="215" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A215"/>
       <c r="B215" s="7" t="s">
         <v>15</v>
@@ -7235,7 +7236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:10" s="5" customFormat="1">
+    <row r="216" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A216"/>
       <c r="B216" s="2" t="s">
         <v>15</v>
@@ -7265,10 +7266,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:10" s="5" customFormat="1">
+    <row r="217" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A217"/>
       <c r="B217" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C217" s="10" t="s">
         <v>55</v>
@@ -7295,10 +7296,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:10" s="5" customFormat="1">
+    <row r="218" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A218"/>
       <c r="B218" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C218" s="10" t="s">
         <v>55</v>
@@ -7325,10 +7326,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="5" customFormat="1">
+    <row r="219" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A219"/>
       <c r="B219" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C219" s="10" t="s">
         <v>55</v>
@@ -7355,10 +7356,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:10" s="5" customFormat="1">
+    <row r="220" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A220"/>
       <c r="B220" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C220" s="10" t="s">
         <v>55</v>
@@ -7385,10 +7386,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:10" s="5" customFormat="1">
+    <row r="221" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A221"/>
       <c r="B221" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C221" s="10" t="s">
         <v>55</v>
@@ -7415,10 +7416,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:10" s="5" customFormat="1">
+    <row r="222" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A222"/>
       <c r="B222" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C222" s="10" t="s">
         <v>55</v>
@@ -7445,10 +7446,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:10" s="5" customFormat="1">
+    <row r="223" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A223"/>
       <c r="B223" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C223" s="10" t="s">
         <v>55</v>
@@ -7475,10 +7476,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:10" s="5" customFormat="1">
+    <row r="224" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A224"/>
       <c r="B224" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C224" s="10" t="s">
         <v>55</v>
@@ -7505,10 +7506,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:10" s="5" customFormat="1">
+    <row r="225" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A225"/>
       <c r="B225" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C225" s="10" t="s">
         <v>55</v>
@@ -7535,10 +7536,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:10" s="5" customFormat="1">
+    <row r="226" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A226"/>
       <c r="B226" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C226" s="10" t="s">
         <v>55</v>
@@ -7565,10 +7566,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:10" s="5" customFormat="1">
+    <row r="227" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A227"/>
       <c r="B227" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C227" s="10" t="s">
         <v>55</v>
@@ -7595,10 +7596,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:10" s="5" customFormat="1">
+    <row r="228" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A228"/>
       <c r="B228" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C228" s="10" t="s">
         <v>55</v>
@@ -7625,10 +7626,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:10" s="5" customFormat="1">
+    <row r="229" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A229"/>
       <c r="B229" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C229" s="10" t="s">
         <v>55</v>
@@ -7655,10 +7656,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:10" s="5" customFormat="1">
+    <row r="230" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A230"/>
       <c r="B230" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C230" s="10" t="s">
         <v>55</v>
@@ -7685,10 +7686,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:10" s="5" customFormat="1">
+    <row r="231" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A231"/>
       <c r="B231" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C231" s="10" t="s">
         <v>55</v>
@@ -7715,10 +7716,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:10" s="5" customFormat="1">
+    <row r="232" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A232"/>
       <c r="B232" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C232" s="10" t="s">
         <v>55</v>
@@ -7745,7 +7746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:10" s="5" customFormat="1">
+    <row r="233" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A233"/>
       <c r="B233" s="7" t="s">
         <v>12</v>
@@ -7775,7 +7776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:10" s="5" customFormat="1">
+    <row r="234" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A234"/>
       <c r="B234" s="2" t="s">
         <v>12</v>
@@ -7805,7 +7806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:10" s="5" customFormat="1">
+    <row r="235" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A235"/>
       <c r="B235" s="7" t="s">
         <v>12</v>
@@ -7835,7 +7836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:10" s="5" customFormat="1">
+    <row r="236" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A236"/>
       <c r="B236" s="2" t="s">
         <v>12</v>
@@ -7865,7 +7866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:10" s="5" customFormat="1">
+    <row r="237" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A237"/>
       <c r="B237" s="7" t="s">
         <v>13</v>
@@ -7895,7 +7896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:10" s="5" customFormat="1">
+    <row r="238" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A238"/>
       <c r="B238" s="2" t="s">
         <v>13</v>
@@ -7925,7 +7926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:10" s="5" customFormat="1">
+    <row r="239" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A239"/>
       <c r="B239" s="7" t="s">
         <v>13</v>
@@ -7955,7 +7956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:10" s="5" customFormat="1">
+    <row r="240" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A240"/>
       <c r="B240" s="2" t="s">
         <v>13</v>
@@ -7985,7 +7986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:10" s="5" customFormat="1">
+    <row r="241" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A241"/>
       <c r="B241" s="7" t="s">
         <v>14</v>
@@ -8015,7 +8016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:10" s="5" customFormat="1">
+    <row r="242" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A242"/>
       <c r="B242" s="2" t="s">
         <v>14</v>
@@ -8045,7 +8046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:10" s="5" customFormat="1">
+    <row r="243" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A243"/>
       <c r="B243" s="7" t="s">
         <v>14</v>
@@ -8075,7 +8076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:10" s="5" customFormat="1">
+    <row r="244" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A244"/>
       <c r="B244" s="2" t="s">
         <v>14</v>
@@ -8105,7 +8106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:10" s="5" customFormat="1">
+    <row r="245" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A245"/>
       <c r="B245" s="7" t="s">
         <v>15</v>
@@ -8135,7 +8136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:10" s="5" customFormat="1">
+    <row r="246" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A246"/>
       <c r="B246" s="2" t="s">
         <v>15</v>
@@ -8165,7 +8166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:10" s="5" customFormat="1">
+    <row r="247" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A247"/>
       <c r="B247" s="7" t="s">
         <v>15</v>
@@ -8195,7 +8196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:10" s="5" customFormat="1">
+    <row r="248" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A248"/>
       <c r="B248" s="2" t="s">
         <v>15</v>
@@ -8225,10 +8226,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:10" s="5" customFormat="1">
+    <row r="249" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A249"/>
       <c r="B249" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C249" s="10" t="s">
         <v>55</v>
@@ -8255,10 +8256,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:10" s="5" customFormat="1">
+    <row r="250" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A250"/>
       <c r="B250" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C250" s="10" t="s">
         <v>55</v>
@@ -8285,10 +8286,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:10" s="5" customFormat="1">
+    <row r="251" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A251"/>
       <c r="B251" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C251" s="10" t="s">
         <v>55</v>
@@ -8315,10 +8316,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:10" s="5" customFormat="1">
+    <row r="252" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A252"/>
       <c r="B252" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C252" s="10" t="s">
         <v>55</v>
@@ -8345,10 +8346,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:10" s="5" customFormat="1">
+    <row r="253" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A253"/>
       <c r="B253" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C253" s="10" t="s">
         <v>55</v>
@@ -8375,10 +8376,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:10" s="5" customFormat="1">
+    <row r="254" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A254"/>
       <c r="B254" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C254" s="10" t="s">
         <v>55</v>
@@ -8405,10 +8406,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:10" s="5" customFormat="1">
+    <row r="255" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A255"/>
       <c r="B255" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C255" s="10" t="s">
         <v>55</v>
@@ -8435,10 +8436,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:10" s="5" customFormat="1">
+    <row r="256" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A256"/>
       <c r="B256" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C256" s="10" t="s">
         <v>55</v>
@@ -8465,10 +8466,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:10" s="5" customFormat="1">
+    <row r="257" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A257"/>
       <c r="B257" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C257" s="10" t="s">
         <v>55</v>
@@ -8495,10 +8496,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:10" s="5" customFormat="1">
+    <row r="258" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A258"/>
       <c r="B258" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C258" s="10" t="s">
         <v>55</v>
@@ -8525,10 +8526,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:10" s="5" customFormat="1">
+    <row r="259" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A259"/>
       <c r="B259" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C259" s="10" t="s">
         <v>55</v>
@@ -8555,10 +8556,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:10" s="5" customFormat="1">
+    <row r="260" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A260"/>
       <c r="B260" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C260" s="10" t="s">
         <v>55</v>
@@ -8585,10 +8586,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:10" s="5" customFormat="1">
+    <row r="261" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A261"/>
       <c r="B261" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C261" s="10" t="s">
         <v>55</v>
@@ -8615,10 +8616,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:10" s="5" customFormat="1">
+    <row r="262" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A262"/>
       <c r="B262" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C262" s="10" t="s">
         <v>55</v>
@@ -8645,10 +8646,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:10" s="5" customFormat="1">
+    <row r="263" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A263"/>
       <c r="B263" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C263" s="10" t="s">
         <v>55</v>
@@ -8675,10 +8676,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:10" s="5" customFormat="1">
+    <row r="264" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A264"/>
       <c r="B264" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C264" s="10" t="s">
         <v>55</v>
@@ -8705,7 +8706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:10" s="5" customFormat="1">
+    <row r="265" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A265"/>
       <c r="B265" s="7" t="s">
         <v>12</v>
@@ -8735,7 +8736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:10" s="5" customFormat="1">
+    <row r="266" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A266"/>
       <c r="B266" s="2" t="s">
         <v>12</v>
@@ -8765,7 +8766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:10" s="5" customFormat="1">
+    <row r="267" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A267"/>
       <c r="B267" s="7" t="s">
         <v>12</v>
@@ -8795,7 +8796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:10" s="5" customFormat="1">
+    <row r="268" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A268"/>
       <c r="B268" s="2" t="s">
         <v>12</v>
@@ -8825,7 +8826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="5" customFormat="1">
+    <row r="269" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A269"/>
       <c r="B269" s="7" t="s">
         <v>13</v>
@@ -8855,7 +8856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:10" s="5" customFormat="1">
+    <row r="270" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A270"/>
       <c r="B270" s="2" t="s">
         <v>13</v>
@@ -8885,7 +8886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:10" s="5" customFormat="1">
+    <row r="271" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A271"/>
       <c r="B271" s="7" t="s">
         <v>13</v>
@@ -8915,7 +8916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:10" s="5" customFormat="1">
+    <row r="272" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A272"/>
       <c r="B272" s="2" t="s">
         <v>13</v>
@@ -8945,7 +8946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:10" s="5" customFormat="1">
+    <row r="273" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A273"/>
       <c r="B273" s="7" t="s">
         <v>14</v>
@@ -8975,7 +8976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:10" s="5" customFormat="1">
+    <row r="274" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A274"/>
       <c r="B274" s="2" t="s">
         <v>14</v>
@@ -9005,7 +9006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:10" s="5" customFormat="1">
+    <row r="275" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A275"/>
       <c r="B275" s="7" t="s">
         <v>14</v>
@@ -9035,7 +9036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:10" s="5" customFormat="1">
+    <row r="276" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A276"/>
       <c r="B276" s="2" t="s">
         <v>14</v>
@@ -9065,7 +9066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:10" s="5" customFormat="1">
+    <row r="277" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A277"/>
       <c r="B277" s="7" t="s">
         <v>15</v>
@@ -9095,7 +9096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:10" s="5" customFormat="1">
+    <row r="278" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A278"/>
       <c r="B278" s="2" t="s">
         <v>15</v>
@@ -9125,7 +9126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:10" s="5" customFormat="1">
+    <row r="279" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A279"/>
       <c r="B279" s="7" t="s">
         <v>15</v>
@@ -9155,7 +9156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:10" s="5" customFormat="1">
+    <row r="280" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A280"/>
       <c r="B280" s="2" t="s">
         <v>15</v>
@@ -9185,10 +9186,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:10" s="5" customFormat="1">
+    <row r="281" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A281"/>
       <c r="B281" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C281" s="10" t="s">
         <v>55</v>
@@ -9215,10 +9216,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:10" s="5" customFormat="1">
+    <row r="282" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A282"/>
       <c r="B282" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C282" s="10" t="s">
         <v>55</v>
@@ -9245,10 +9246,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:10" s="5" customFormat="1">
+    <row r="283" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A283"/>
       <c r="B283" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C283" s="10" t="s">
         <v>55</v>
@@ -9275,10 +9276,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:10" s="5" customFormat="1">
+    <row r="284" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A284"/>
       <c r="B284" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C284" s="10" t="s">
         <v>55</v>
@@ -9305,10 +9306,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:10" s="5" customFormat="1">
+    <row r="285" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A285"/>
       <c r="B285" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C285" s="10" t="s">
         <v>55</v>
@@ -9335,10 +9336,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:10" s="5" customFormat="1">
+    <row r="286" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A286"/>
       <c r="B286" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C286" s="10" t="s">
         <v>55</v>
@@ -9365,10 +9366,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:10" s="5" customFormat="1">
+    <row r="287" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A287"/>
       <c r="B287" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C287" s="10" t="s">
         <v>55</v>
@@ -9395,10 +9396,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:10" s="5" customFormat="1">
+    <row r="288" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A288"/>
       <c r="B288" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C288" s="10" t="s">
         <v>55</v>
@@ -9425,10 +9426,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:10" s="5" customFormat="1">
+    <row r="289" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A289"/>
       <c r="B289" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C289" s="10" t="s">
         <v>55</v>
@@ -9455,10 +9456,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:10" s="5" customFormat="1">
+    <row r="290" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A290"/>
       <c r="B290" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C290" s="10" t="s">
         <v>55</v>
@@ -9485,10 +9486,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:10" s="5" customFormat="1">
+    <row r="291" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A291"/>
       <c r="B291" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C291" s="10" t="s">
         <v>55</v>
@@ -9515,10 +9516,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:10" s="5" customFormat="1">
+    <row r="292" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A292"/>
       <c r="B292" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C292" s="10" t="s">
         <v>55</v>
@@ -9545,10 +9546,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:10" s="5" customFormat="1">
+    <row r="293" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A293"/>
       <c r="B293" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C293" s="10" t="s">
         <v>55</v>
@@ -9575,10 +9576,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:10" s="5" customFormat="1">
+    <row r="294" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A294"/>
       <c r="B294" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C294" s="10" t="s">
         <v>55</v>
@@ -9605,10 +9606,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:10" s="5" customFormat="1">
+    <row r="295" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A295"/>
       <c r="B295" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C295" s="10" t="s">
         <v>55</v>
@@ -9635,10 +9636,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:10" s="5" customFormat="1">
+    <row r="296" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A296"/>
       <c r="B296" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C296" s="10" t="s">
         <v>55</v>
@@ -9665,7 +9666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:10" s="6" customFormat="1">
+    <row r="297" spans="1:10" s="6" customFormat="1" hidden="1">
       <c r="A297"/>
       <c r="B297" s="7" t="s">
         <v>16</v>
@@ -9695,7 +9696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:10" s="5" customFormat="1">
+    <row r="298" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A298"/>
       <c r="B298" s="2" t="s">
         <v>16</v>
@@ -9725,7 +9726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:10" s="5" customFormat="1">
+    <row r="299" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A299"/>
       <c r="B299" s="7" t="s">
         <v>16</v>
@@ -9755,7 +9756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:10" s="5" customFormat="1">
+    <row r="300" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A300"/>
       <c r="B300" s="2" t="s">
         <v>16</v>
@@ -9785,7 +9786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:10" s="5" customFormat="1">
+    <row r="301" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A301"/>
       <c r="B301" s="7" t="s">
         <v>16</v>
@@ -9815,7 +9816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:10" s="5" customFormat="1">
+    <row r="302" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A302"/>
       <c r="B302" s="2" t="s">
         <v>16</v>
@@ -9845,7 +9846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:10" s="5" customFormat="1">
+    <row r="303" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A303"/>
       <c r="B303" s="7" t="s">
         <v>16</v>
@@ -9875,7 +9876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:10" s="5" customFormat="1">
+    <row r="304" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A304"/>
       <c r="B304" s="2" t="s">
         <v>16</v>
@@ -9905,7 +9906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:10" s="5" customFormat="1">
+    <row r="305" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A305"/>
       <c r="B305" s="7" t="s">
         <v>16</v>
@@ -9935,7 +9936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:10" s="5" customFormat="1">
+    <row r="306" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A306"/>
       <c r="B306" s="2" t="s">
         <v>16</v>
@@ -9965,7 +9966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:10" s="5" customFormat="1">
+    <row r="307" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A307"/>
       <c r="B307" s="7" t="s">
         <v>16</v>
@@ -9995,7 +9996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:10" s="5" customFormat="1">
+    <row r="308" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A308"/>
       <c r="B308" s="2" t="s">
         <v>16</v>
@@ -10025,7 +10026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:10" s="5" customFormat="1">
+    <row r="309" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A309"/>
       <c r="B309" s="7" t="s">
         <v>17</v>
@@ -10055,7 +10056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:10" s="5" customFormat="1">
+    <row r="310" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A310"/>
       <c r="B310" s="2" t="s">
         <v>17</v>
@@ -10085,7 +10086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:10" s="5" customFormat="1">
+    <row r="311" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A311"/>
       <c r="B311" s="7" t="s">
         <v>17</v>
@@ -10115,7 +10116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:10" s="5" customFormat="1">
+    <row r="312" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A312"/>
       <c r="B312" s="2" t="s">
         <v>17</v>
@@ -10145,7 +10146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:10" s="5" customFormat="1">
+    <row r="313" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A313"/>
       <c r="B313" s="7" t="s">
         <v>17</v>
@@ -10175,7 +10176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:10" s="5" customFormat="1">
+    <row r="314" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A314"/>
       <c r="B314" s="2" t="s">
         <v>17</v>
@@ -10205,7 +10206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:10" s="5" customFormat="1">
+    <row r="315" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A315"/>
       <c r="B315" s="7" t="s">
         <v>17</v>
@@ -10235,7 +10236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:10" s="5" customFormat="1">
+    <row r="316" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A316"/>
       <c r="B316" s="2" t="s">
         <v>17</v>
@@ -10265,7 +10266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:10" s="5" customFormat="1">
+    <row r="317" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A317"/>
       <c r="B317" s="7" t="s">
         <v>17</v>
@@ -10295,7 +10296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:10" s="5" customFormat="1">
+    <row r="318" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A318"/>
       <c r="B318" s="2" t="s">
         <v>17</v>
@@ -10325,7 +10326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:10" s="5" customFormat="1">
+    <row r="319" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A319"/>
       <c r="B319" s="7" t="s">
         <v>17</v>
@@ -10355,7 +10356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:10" s="5" customFormat="1">
+    <row r="320" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A320"/>
       <c r="B320" s="2" t="s">
         <v>17</v>
@@ -10385,7 +10386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:10" s="5" customFormat="1">
+    <row r="321" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A321"/>
       <c r="B321" s="7" t="s">
         <v>18</v>
@@ -10415,7 +10416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:10" s="5" customFormat="1">
+    <row r="322" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A322"/>
       <c r="B322" s="2" t="s">
         <v>18</v>
@@ -10445,7 +10446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:10" s="5" customFormat="1">
+    <row r="323" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A323"/>
       <c r="B323" s="7" t="s">
         <v>18</v>
@@ -10475,7 +10476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:10" s="5" customFormat="1">
+    <row r="324" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A324"/>
       <c r="B324" s="2" t="s">
         <v>18</v>
@@ -10505,7 +10506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:10" s="5" customFormat="1">
+    <row r="325" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A325"/>
       <c r="B325" s="7" t="s">
         <v>18</v>
@@ -10535,7 +10536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:10" s="5" customFormat="1">
+    <row r="326" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A326"/>
       <c r="B326" s="2" t="s">
         <v>18</v>
@@ -10565,7 +10566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:10" s="5" customFormat="1">
+    <row r="327" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A327"/>
       <c r="B327" s="7" t="s">
         <v>18</v>
@@ -10595,7 +10596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:10" s="5" customFormat="1">
+    <row r="328" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A328"/>
       <c r="B328" s="2" t="s">
         <v>18</v>
@@ -10625,7 +10626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:10" s="5" customFormat="1">
+    <row r="329" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A329"/>
       <c r="B329" s="7" t="s">
         <v>18</v>
@@ -10655,7 +10656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:10" s="5" customFormat="1">
+    <row r="330" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A330"/>
       <c r="B330" s="2" t="s">
         <v>18</v>
@@ -10685,7 +10686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:10" s="5" customFormat="1">
+    <row r="331" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A331"/>
       <c r="B331" s="7" t="s">
         <v>18</v>
@@ -10715,7 +10716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:10" s="5" customFormat="1">
+    <row r="332" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A332"/>
       <c r="B332" s="2" t="s">
         <v>18</v>
@@ -10745,7 +10746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:10" s="5" customFormat="1">
+    <row r="333" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A333"/>
       <c r="B333" s="7" t="s">
         <v>19</v>
@@ -10775,7 +10776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:10" s="5" customFormat="1">
+    <row r="334" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A334"/>
       <c r="B334" s="2" t="s">
         <v>19</v>
@@ -10805,7 +10806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:10" s="5" customFormat="1">
+    <row r="335" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A335"/>
       <c r="B335" s="7" t="s">
         <v>19</v>
@@ -10835,7 +10836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:10" s="5" customFormat="1">
+    <row r="336" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A336"/>
       <c r="B336" s="2" t="s">
         <v>19</v>
@@ -10865,7 +10866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:10" s="5" customFormat="1">
+    <row r="337" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A337"/>
       <c r="B337" s="7" t="s">
         <v>19</v>
@@ -10895,7 +10896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:10" s="5" customFormat="1">
+    <row r="338" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A338"/>
       <c r="B338" s="2" t="s">
         <v>19</v>
@@ -10925,7 +10926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:10" s="5" customFormat="1">
+    <row r="339" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A339"/>
       <c r="B339" s="7" t="s">
         <v>19</v>
@@ -10955,7 +10956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:10" s="5" customFormat="1">
+    <row r="340" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A340"/>
       <c r="B340" s="2" t="s">
         <v>19</v>
@@ -10985,7 +10986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:10" s="5" customFormat="1">
+    <row r="341" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A341"/>
       <c r="B341" s="7" t="s">
         <v>19</v>
@@ -11015,7 +11016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:10" s="5" customFormat="1">
+    <row r="342" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A342"/>
       <c r="B342" s="2" t="s">
         <v>19</v>
@@ -11045,7 +11046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:10" s="5" customFormat="1">
+    <row r="343" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A343"/>
       <c r="B343" s="7" t="s">
         <v>19</v>
@@ -11075,7 +11076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:10" s="5" customFormat="1">
+    <row r="344" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A344"/>
       <c r="B344" s="2" t="s">
         <v>19</v>
@@ -11105,7 +11106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:10" s="5" customFormat="1">
+    <row r="345" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A345"/>
       <c r="B345" s="7" t="s">
         <v>20</v>
@@ -11135,7 +11136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:10" s="5" customFormat="1">
+    <row r="346" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A346"/>
       <c r="B346" s="2" t="s">
         <v>20</v>
@@ -11165,7 +11166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:10" s="5" customFormat="1">
+    <row r="347" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A347"/>
       <c r="B347" s="7" t="s">
         <v>20</v>
@@ -11195,7 +11196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:10" s="5" customFormat="1">
+    <row r="348" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A348"/>
       <c r="B348" s="2" t="s">
         <v>20</v>
@@ -11225,7 +11226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:10" s="5" customFormat="1">
+    <row r="349" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A349"/>
       <c r="B349" s="7" t="s">
         <v>20</v>
@@ -11255,7 +11256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:10" s="5" customFormat="1">
+    <row r="350" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A350"/>
       <c r="B350" s="2" t="s">
         <v>20</v>
@@ -11285,7 +11286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:10" s="5" customFormat="1">
+    <row r="351" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A351"/>
       <c r="B351" s="7" t="s">
         <v>20</v>
@@ -11315,7 +11316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:10" s="5" customFormat="1">
+    <row r="352" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A352"/>
       <c r="B352" s="2" t="s">
         <v>20</v>
@@ -11345,7 +11346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:10" s="5" customFormat="1">
+    <row r="353" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A353"/>
       <c r="B353" s="7" t="s">
         <v>20</v>
@@ -11375,7 +11376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:10" s="5" customFormat="1">
+    <row r="354" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A354"/>
       <c r="B354" s="2" t="s">
         <v>20</v>
@@ -11405,7 +11406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:10" s="5" customFormat="1">
+    <row r="355" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A355"/>
       <c r="B355" s="7" t="s">
         <v>20</v>
@@ -11435,7 +11436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:10" s="5" customFormat="1">
+    <row r="356" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A356"/>
       <c r="B356" s="2" t="s">
         <v>20</v>
@@ -11465,7 +11466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:10" s="5" customFormat="1">
+    <row r="357" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A357"/>
       <c r="B357" s="7" t="s">
         <v>21</v>
@@ -11495,7 +11496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:10" s="5" customFormat="1">
+    <row r="358" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A358"/>
       <c r="B358" s="2" t="s">
         <v>21</v>
@@ -11525,7 +11526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:10" s="5" customFormat="1">
+    <row r="359" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A359"/>
       <c r="B359" s="7" t="s">
         <v>21</v>
@@ -11555,7 +11556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:10" s="5" customFormat="1">
+    <row r="360" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A360"/>
       <c r="B360" s="2" t="s">
         <v>21</v>
@@ -11585,7 +11586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:10" s="5" customFormat="1">
+    <row r="361" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A361"/>
       <c r="B361" s="7" t="s">
         <v>21</v>
@@ -11615,7 +11616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:10" s="5" customFormat="1">
+    <row r="362" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A362"/>
       <c r="B362" s="2" t="s">
         <v>21</v>
@@ -11645,7 +11646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:10" s="5" customFormat="1">
+    <row r="363" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A363"/>
       <c r="B363" s="7" t="s">
         <v>21</v>
@@ -11675,7 +11676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:10" s="5" customFormat="1">
+    <row r="364" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A364"/>
       <c r="B364" s="2" t="s">
         <v>21</v>
@@ -11705,7 +11706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:10" s="5" customFormat="1">
+    <row r="365" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A365"/>
       <c r="B365" s="7" t="s">
         <v>21</v>
@@ -11735,7 +11736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:10" s="5" customFormat="1">
+    <row r="366" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A366"/>
       <c r="B366" s="2" t="s">
         <v>21</v>
@@ -11765,7 +11766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:10" s="5" customFormat="1">
+    <row r="367" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A367"/>
       <c r="B367" s="7" t="s">
         <v>21</v>
@@ -11795,7 +11796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:10" s="5" customFormat="1">
+    <row r="368" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A368"/>
       <c r="B368" s="2" t="s">
         <v>21</v>
@@ -11825,7 +11826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:10" s="5" customFormat="1">
+    <row r="369" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A369"/>
       <c r="B369" s="7" t="s">
         <v>22</v>
@@ -11855,7 +11856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:10" s="5" customFormat="1">
+    <row r="370" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A370"/>
       <c r="B370" s="2" t="s">
         <v>22</v>
@@ -11885,7 +11886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:10" s="5" customFormat="1">
+    <row r="371" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A371"/>
       <c r="B371" s="7" t="s">
         <v>22</v>
@@ -11915,7 +11916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:10" s="5" customFormat="1">
+    <row r="372" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A372"/>
       <c r="B372" s="2" t="s">
         <v>22</v>
@@ -11945,7 +11946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:10" s="5" customFormat="1">
+    <row r="373" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A373"/>
       <c r="B373" s="7" t="s">
         <v>22</v>
@@ -11975,7 +11976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:10" s="5" customFormat="1">
+    <row r="374" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A374"/>
       <c r="B374" s="2" t="s">
         <v>22</v>
@@ -12005,7 +12006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:10" s="5" customFormat="1">
+    <row r="375" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A375"/>
       <c r="B375" s="7" t="s">
         <v>22</v>
@@ -12035,7 +12036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:10" s="5" customFormat="1">
+    <row r="376" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A376"/>
       <c r="B376" s="2" t="s">
         <v>22</v>
@@ -12065,7 +12066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:10" s="5" customFormat="1">
+    <row r="377" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A377"/>
       <c r="B377" s="7" t="s">
         <v>22</v>
@@ -12095,7 +12096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:10" s="5" customFormat="1">
+    <row r="378" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A378"/>
       <c r="B378" s="2" t="s">
         <v>22</v>
@@ -12125,7 +12126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:10" s="5" customFormat="1">
+    <row r="379" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A379"/>
       <c r="B379" s="7" t="s">
         <v>22</v>
@@ -12155,7 +12156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:10" s="5" customFormat="1">
+    <row r="380" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A380"/>
       <c r="B380" s="2" t="s">
         <v>22</v>
@@ -12185,7 +12186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:10" s="5" customFormat="1">
+    <row r="381" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A381"/>
       <c r="B381" s="7" t="s">
         <v>23</v>
@@ -12215,7 +12216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:10" s="5" customFormat="1">
+    <row r="382" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A382"/>
       <c r="B382" s="2" t="s">
         <v>23</v>
@@ -12245,7 +12246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:10" s="5" customFormat="1">
+    <row r="383" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A383"/>
       <c r="B383" s="7" t="s">
         <v>23</v>
@@ -12275,7 +12276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:10" s="5" customFormat="1">
+    <row r="384" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A384"/>
       <c r="B384" s="2" t="s">
         <v>23</v>
@@ -12305,7 +12306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:10" s="5" customFormat="1">
+    <row r="385" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A385"/>
       <c r="B385" s="7" t="s">
         <v>23</v>
@@ -12335,7 +12336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:10" s="5" customFormat="1">
+    <row r="386" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A386"/>
       <c r="B386" s="2" t="s">
         <v>23</v>
@@ -12365,7 +12366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:10" s="5" customFormat="1">
+    <row r="387" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A387"/>
       <c r="B387" s="7" t="s">
         <v>23</v>
@@ -12395,7 +12396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:10" s="5" customFormat="1">
+    <row r="388" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A388"/>
       <c r="B388" s="2" t="s">
         <v>23</v>
@@ -12425,7 +12426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:10" s="5" customFormat="1">
+    <row r="389" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A389"/>
       <c r="B389" s="7" t="s">
         <v>23</v>
@@ -12455,7 +12456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:10" s="5" customFormat="1">
+    <row r="390" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A390"/>
       <c r="B390" s="2" t="s">
         <v>23</v>
@@ -12485,7 +12486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:10" s="5" customFormat="1">
+    <row r="391" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A391"/>
       <c r="B391" s="7" t="s">
         <v>23</v>
@@ -12515,7 +12516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:10" s="5" customFormat="1">
+    <row r="392" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A392"/>
       <c r="B392" s="2" t="s">
         <v>23</v>
@@ -12545,7 +12546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:10" s="5" customFormat="1">
+    <row r="393" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A393"/>
       <c r="B393" s="7" t="s">
         <v>24</v>
@@ -12575,7 +12576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:10" s="5" customFormat="1">
+    <row r="394" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A394"/>
       <c r="B394" s="2" t="s">
         <v>24</v>
@@ -12605,7 +12606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:10" s="5" customFormat="1">
+    <row r="395" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A395"/>
       <c r="B395" s="7" t="s">
         <v>24</v>
@@ -12635,7 +12636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:10" s="5" customFormat="1">
+    <row r="396" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A396"/>
       <c r="B396" s="2" t="s">
         <v>24</v>
@@ -12665,7 +12666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:10" s="5" customFormat="1">
+    <row r="397" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A397"/>
       <c r="B397" s="7" t="s">
         <v>24</v>
@@ -12695,7 +12696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:10" s="5" customFormat="1">
+    <row r="398" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A398"/>
       <c r="B398" s="2" t="s">
         <v>24</v>
@@ -12725,7 +12726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:10" s="5" customFormat="1">
+    <row r="399" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A399"/>
       <c r="B399" s="7" t="s">
         <v>24</v>
@@ -12755,7 +12756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:10" s="5" customFormat="1">
+    <row r="400" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A400"/>
       <c r="B400" s="2" t="s">
         <v>24</v>
@@ -12785,7 +12786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:10" s="5" customFormat="1">
+    <row r="401" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A401"/>
       <c r="B401" s="7" t="s">
         <v>24</v>
@@ -12815,7 +12816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:10" s="5" customFormat="1">
+    <row r="402" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A402"/>
       <c r="B402" s="2" t="s">
         <v>24</v>
@@ -12845,7 +12846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:10" s="5" customFormat="1">
+    <row r="403" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A403"/>
       <c r="B403" s="7" t="s">
         <v>24</v>
@@ -12875,7 +12876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:10" s="5" customFormat="1">
+    <row r="404" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A404"/>
       <c r="B404" s="2" t="s">
         <v>24</v>
@@ -12905,7 +12906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:10" s="5" customFormat="1">
+    <row r="405" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A405"/>
       <c r="B405" s="7" t="s">
         <v>25</v>
@@ -12935,7 +12936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:10" s="5" customFormat="1">
+    <row r="406" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A406"/>
       <c r="B406" s="2" t="s">
         <v>25</v>
@@ -12965,7 +12966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:10" s="5" customFormat="1">
+    <row r="407" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A407"/>
       <c r="B407" s="7" t="s">
         <v>25</v>
@@ -12995,7 +12996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:10" s="5" customFormat="1">
+    <row r="408" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A408"/>
       <c r="B408" s="2" t="s">
         <v>25</v>
@@ -13025,7 +13026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:10" s="5" customFormat="1">
+    <row r="409" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A409"/>
       <c r="B409" s="7" t="s">
         <v>25</v>
@@ -13055,7 +13056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:10" s="5" customFormat="1">
+    <row r="410" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A410"/>
       <c r="B410" s="2" t="s">
         <v>25</v>
@@ -13085,7 +13086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:10" s="5" customFormat="1">
+    <row r="411" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A411"/>
       <c r="B411" s="7" t="s">
         <v>25</v>
@@ -13115,7 +13116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:10" s="5" customFormat="1">
+    <row r="412" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A412"/>
       <c r="B412" s="2" t="s">
         <v>25</v>
@@ -13145,7 +13146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:10" s="5" customFormat="1">
+    <row r="413" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A413"/>
       <c r="B413" s="7" t="s">
         <v>25</v>
@@ -13175,7 +13176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:10" s="5" customFormat="1">
+    <row r="414" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A414"/>
       <c r="B414" s="2" t="s">
         <v>25</v>
@@ -13205,7 +13206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:10" s="5" customFormat="1">
+    <row r="415" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A415"/>
       <c r="B415" s="7" t="s">
         <v>25</v>
@@ -13235,7 +13236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:10" s="5" customFormat="1">
+    <row r="416" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A416"/>
       <c r="B416" s="2" t="s">
         <v>25</v>
@@ -13265,7 +13266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:10" s="5" customFormat="1">
+    <row r="417" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A417"/>
       <c r="B417" s="7" t="s">
         <v>26</v>
@@ -13295,7 +13296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:10" s="5" customFormat="1">
+    <row r="418" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A418"/>
       <c r="B418" s="2" t="s">
         <v>26</v>
@@ -13325,7 +13326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:10" s="5" customFormat="1">
+    <row r="419" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A419"/>
       <c r="B419" s="7" t="s">
         <v>26</v>
@@ -13355,7 +13356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:10" s="5" customFormat="1">
+    <row r="420" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A420"/>
       <c r="B420" s="2" t="s">
         <v>26</v>
@@ -13385,7 +13386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:10" s="5" customFormat="1">
+    <row r="421" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A421"/>
       <c r="B421" s="7" t="s">
         <v>26</v>
@@ -13415,7 +13416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:10" s="5" customFormat="1">
+    <row r="422" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A422"/>
       <c r="B422" s="2" t="s">
         <v>26</v>
@@ -13445,7 +13446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:10" s="5" customFormat="1">
+    <row r="423" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A423"/>
       <c r="B423" s="7" t="s">
         <v>26</v>
@@ -13475,7 +13476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:10" s="5" customFormat="1">
+    <row r="424" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A424"/>
       <c r="B424" s="2" t="s">
         <v>26</v>
@@ -13505,7 +13506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:10" s="5" customFormat="1">
+    <row r="425" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A425"/>
       <c r="B425" s="7" t="s">
         <v>26</v>
@@ -13535,7 +13536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:10" s="5" customFormat="1">
+    <row r="426" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A426"/>
       <c r="B426" s="2" t="s">
         <v>26</v>
@@ -13565,7 +13566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:10" s="5" customFormat="1">
+    <row r="427" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A427"/>
       <c r="B427" s="7" t="s">
         <v>26</v>
@@ -13595,7 +13596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:10" s="5" customFormat="1">
+    <row r="428" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A428"/>
       <c r="B428" s="2" t="s">
         <v>26</v>
@@ -13625,7 +13626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:10" s="5" customFormat="1">
+    <row r="429" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A429"/>
       <c r="B429" s="7" t="s">
         <v>27</v>
@@ -13655,7 +13656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:10" s="5" customFormat="1">
+    <row r="430" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A430"/>
       <c r="B430" s="2" t="s">
         <v>27</v>
@@ -13685,7 +13686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:10" s="5" customFormat="1">
+    <row r="431" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A431"/>
       <c r="B431" s="7" t="s">
         <v>27</v>
@@ -13715,7 +13716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:10" s="5" customFormat="1">
+    <row r="432" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A432"/>
       <c r="B432" s="2" t="s">
         <v>27</v>
@@ -13745,7 +13746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:10" s="5" customFormat="1">
+    <row r="433" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A433"/>
       <c r="B433" s="7" t="s">
         <v>27</v>
@@ -13775,7 +13776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:10" s="5" customFormat="1">
+    <row r="434" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A434"/>
       <c r="B434" s="2" t="s">
         <v>27</v>
@@ -13805,7 +13806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:10" s="5" customFormat="1">
+    <row r="435" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A435"/>
       <c r="B435" s="7" t="s">
         <v>27</v>
@@ -13835,7 +13836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:10" s="5" customFormat="1">
+    <row r="436" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A436"/>
       <c r="B436" s="2" t="s">
         <v>27</v>
@@ -13865,7 +13866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:10" s="5" customFormat="1">
+    <row r="437" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A437"/>
       <c r="B437" s="7" t="s">
         <v>27</v>
@@ -13895,7 +13896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:10" s="5" customFormat="1">
+    <row r="438" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A438"/>
       <c r="B438" s="2" t="s">
         <v>27</v>
@@ -13925,7 +13926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:10" s="5" customFormat="1">
+    <row r="439" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A439"/>
       <c r="B439" s="7" t="s">
         <v>27</v>
@@ -13955,7 +13956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:10" s="5" customFormat="1">
+    <row r="440" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A440"/>
       <c r="B440" s="2" t="s">
         <v>27</v>
@@ -13985,7 +13986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:10" s="5" customFormat="1">
+    <row r="441" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A441"/>
       <c r="B441" s="7" t="s">
         <v>28</v>
@@ -14015,7 +14016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:10" s="5" customFormat="1">
+    <row r="442" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A442"/>
       <c r="B442" s="2" t="s">
         <v>28</v>
@@ -14045,7 +14046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:10" s="5" customFormat="1">
+    <row r="443" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A443"/>
       <c r="B443" s="7" t="s">
         <v>28</v>
@@ -14075,7 +14076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:10" s="5" customFormat="1">
+    <row r="444" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A444"/>
       <c r="B444" s="2" t="s">
         <v>28</v>
@@ -14105,7 +14106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:10" s="5" customFormat="1">
+    <row r="445" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A445"/>
       <c r="B445" s="7" t="s">
         <v>28</v>
@@ -14135,7 +14136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:10" s="5" customFormat="1">
+    <row r="446" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A446"/>
       <c r="B446" s="2" t="s">
         <v>28</v>
@@ -14165,7 +14166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:10" s="5" customFormat="1">
+    <row r="447" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A447"/>
       <c r="B447" s="7" t="s">
         <v>28</v>
@@ -14195,7 +14196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:10" s="5" customFormat="1">
+    <row r="448" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A448"/>
       <c r="B448" s="2" t="s">
         <v>28</v>
@@ -14225,7 +14226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:10" s="5" customFormat="1">
+    <row r="449" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A449"/>
       <c r="B449" s="7" t="s">
         <v>28</v>
@@ -14255,7 +14256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:10" s="5" customFormat="1">
+    <row r="450" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A450"/>
       <c r="B450" s="2" t="s">
         <v>28</v>
@@ -14285,7 +14286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:10" s="5" customFormat="1">
+    <row r="451" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A451"/>
       <c r="B451" s="7" t="s">
         <v>28</v>
@@ -14315,7 +14316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:10" s="5" customFormat="1">
+    <row r="452" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A452"/>
       <c r="B452" s="2" t="s">
         <v>28</v>
@@ -14345,7 +14346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:10" s="5" customFormat="1">
+    <row r="453" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A453"/>
       <c r="B453" s="7" t="s">
         <v>29</v>
@@ -14375,7 +14376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:10" s="5" customFormat="1">
+    <row r="454" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A454"/>
       <c r="B454" s="2" t="s">
         <v>29</v>
@@ -14405,7 +14406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:10" s="5" customFormat="1">
+    <row r="455" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A455"/>
       <c r="B455" s="7" t="s">
         <v>29</v>
@@ -14435,7 +14436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:10" s="5" customFormat="1">
+    <row r="456" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A456"/>
       <c r="B456" s="2" t="s">
         <v>29</v>
@@ -14465,7 +14466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:10" s="5" customFormat="1">
+    <row r="457" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A457"/>
       <c r="B457" s="7" t="s">
         <v>29</v>
@@ -14495,7 +14496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:10" s="5" customFormat="1">
+    <row r="458" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A458"/>
       <c r="B458" s="2" t="s">
         <v>29</v>
@@ -14525,7 +14526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:10" s="5" customFormat="1">
+    <row r="459" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A459"/>
       <c r="B459" s="7" t="s">
         <v>29</v>
@@ -14555,7 +14556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:10" s="5" customFormat="1">
+    <row r="460" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A460"/>
       <c r="B460" s="2" t="s">
         <v>29</v>
@@ -14585,7 +14586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:10" s="5" customFormat="1">
+    <row r="461" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A461"/>
       <c r="B461" s="7" t="s">
         <v>29</v>
@@ -14615,7 +14616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:10" s="5" customFormat="1">
+    <row r="462" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A462"/>
       <c r="B462" s="2" t="s">
         <v>29</v>
@@ -14645,7 +14646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:10" s="5" customFormat="1">
+    <row r="463" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A463"/>
       <c r="B463" s="7" t="s">
         <v>29</v>
@@ -14675,7 +14676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:10" s="5" customFormat="1">
+    <row r="464" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A464"/>
       <c r="B464" s="2" t="s">
         <v>29</v>
@@ -14705,7 +14706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:10" s="5" customFormat="1">
+    <row r="465" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A465"/>
       <c r="B465" s="7" t="s">
         <v>31</v>
@@ -14735,7 +14736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:10" s="5" customFormat="1">
+    <row r="466" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A466"/>
       <c r="B466" s="2" t="s">
         <v>31</v>
@@ -14765,7 +14766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:10" s="5" customFormat="1">
+    <row r="467" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A467"/>
       <c r="B467" s="7" t="s">
         <v>31</v>
@@ -14795,7 +14796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:10" s="5" customFormat="1">
+    <row r="468" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A468"/>
       <c r="B468" s="2" t="s">
         <v>31</v>
@@ -14825,7 +14826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:10" s="5" customFormat="1">
+    <row r="469" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A469"/>
       <c r="B469" s="7" t="s">
         <v>31</v>
@@ -14855,7 +14856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:10" s="5" customFormat="1">
+    <row r="470" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A470"/>
       <c r="B470" s="2" t="s">
         <v>31</v>
@@ -14885,7 +14886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:10" s="5" customFormat="1">
+    <row r="471" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A471"/>
       <c r="B471" s="7" t="s">
         <v>31</v>
@@ -14915,7 +14916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:10" s="5" customFormat="1">
+    <row r="472" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A472"/>
       <c r="B472" s="2" t="s">
         <v>31</v>
@@ -14945,7 +14946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:10" s="5" customFormat="1">
+    <row r="473" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A473"/>
       <c r="B473" s="7" t="s">
         <v>31</v>
@@ -14975,7 +14976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:10" s="5" customFormat="1">
+    <row r="474" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A474"/>
       <c r="B474" s="2" t="s">
         <v>31</v>
@@ -15005,7 +15006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:10" s="5" customFormat="1">
+    <row r="475" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A475"/>
       <c r="B475" s="7" t="s">
         <v>31</v>
@@ -15035,7 +15036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:10" s="5" customFormat="1">
+    <row r="476" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A476"/>
       <c r="B476" s="2" t="s">
         <v>31</v>
@@ -15065,7 +15066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:10" s="5" customFormat="1">
+    <row r="477" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A477"/>
       <c r="B477" s="7" t="s">
         <v>30</v>
@@ -15095,7 +15096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:10" s="5" customFormat="1">
+    <row r="478" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A478"/>
       <c r="B478" s="2" t="s">
         <v>30</v>
@@ -15125,7 +15126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:10" s="5" customFormat="1">
+    <row r="479" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A479"/>
       <c r="B479" s="7" t="s">
         <v>30</v>
@@ -15155,7 +15156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:10" s="5" customFormat="1">
+    <row r="480" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A480"/>
       <c r="B480" s="2" t="s">
         <v>30</v>
@@ -15185,7 +15186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:10" s="5" customFormat="1">
+    <row r="481" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A481"/>
       <c r="B481" s="7" t="s">
         <v>30</v>
@@ -15215,7 +15216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:10" s="5" customFormat="1">
+    <row r="482" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A482"/>
       <c r="B482" s="2" t="s">
         <v>30</v>
@@ -15245,7 +15246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:10" s="5" customFormat="1">
+    <row r="483" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A483"/>
       <c r="B483" s="7" t="s">
         <v>30</v>
@@ -15275,7 +15276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:10" s="5" customFormat="1">
+    <row r="484" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A484"/>
       <c r="B484" s="2" t="s">
         <v>30</v>
@@ -15305,7 +15306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:10" s="5" customFormat="1">
+    <row r="485" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A485"/>
       <c r="B485" s="7" t="s">
         <v>30</v>
@@ -15335,7 +15336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:10" s="5" customFormat="1">
+    <row r="486" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A486"/>
       <c r="B486" s="2" t="s">
         <v>30</v>
@@ -15365,7 +15366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:10" s="5" customFormat="1">
+    <row r="487" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A487"/>
       <c r="B487" s="7" t="s">
         <v>30</v>
@@ -15395,7 +15396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:10" s="5" customFormat="1">
+    <row r="488" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A488"/>
       <c r="B488" s="2" t="s">
         <v>30</v>
@@ -15425,7 +15426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:10" s="5" customFormat="1">
+    <row r="489" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A489"/>
       <c r="B489" s="7" t="s">
         <v>32</v>
@@ -15455,7 +15456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:10" s="5" customFormat="1">
+    <row r="490" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A490"/>
       <c r="B490" s="2" t="s">
         <v>32</v>
@@ -15485,7 +15486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:10" s="5" customFormat="1">
+    <row r="491" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A491"/>
       <c r="B491" s="7" t="s">
         <v>32</v>
@@ -15515,7 +15516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:10" s="5" customFormat="1">
+    <row r="492" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A492"/>
       <c r="B492" s="2" t="s">
         <v>32</v>
@@ -15545,7 +15546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:10" s="5" customFormat="1">
+    <row r="493" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A493"/>
       <c r="B493" s="7" t="s">
         <v>32</v>
@@ -15575,7 +15576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:10" s="5" customFormat="1">
+    <row r="494" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A494"/>
       <c r="B494" s="2" t="s">
         <v>32</v>
@@ -15605,7 +15606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:10" s="5" customFormat="1">
+    <row r="495" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A495"/>
       <c r="B495" s="7" t="s">
         <v>32</v>
@@ -15635,7 +15636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:10" s="5" customFormat="1">
+    <row r="496" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A496"/>
       <c r="B496" s="2" t="s">
         <v>32</v>
@@ -15665,7 +15666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:10" s="5" customFormat="1">
+    <row r="497" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A497"/>
       <c r="B497" s="7" t="s">
         <v>32</v>
@@ -15695,7 +15696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:10" s="5" customFormat="1">
+    <row r="498" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A498"/>
       <c r="B498" s="2" t="s">
         <v>32</v>
@@ -15725,7 +15726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="1:10" s="5" customFormat="1">
+    <row r="499" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A499"/>
       <c r="B499" s="7" t="s">
         <v>32</v>
@@ -15755,7 +15756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:10" s="5" customFormat="1">
+    <row r="500" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A500"/>
       <c r="B500" s="2" t="s">
         <v>32</v>
@@ -15785,7 +15786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:10" s="5" customFormat="1">
+    <row r="501" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A501"/>
       <c r="B501" s="7" t="s">
         <v>33</v>
@@ -15815,7 +15816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:10" s="5" customFormat="1">
+    <row r="502" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A502"/>
       <c r="B502" s="25" t="s">
         <v>33</v>
@@ -15845,7 +15846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:10" s="5" customFormat="1">
+    <row r="503" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A503"/>
       <c r="B503" s="2" t="s">
         <v>33</v>
@@ -15875,7 +15876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:10" s="5" customFormat="1">
+    <row r="504" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A504"/>
       <c r="B504" s="7" t="s">
         <v>34</v>
@@ -15905,7 +15906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:10" s="5" customFormat="1">
+    <row r="505" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A505"/>
       <c r="B505" s="25" t="s">
         <v>34</v>
@@ -15935,7 +15936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:10" s="5" customFormat="1">
+    <row r="506" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A506"/>
       <c r="B506" s="2" t="s">
         <v>34</v>
@@ -15965,7 +15966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:10" s="5" customFormat="1">
+    <row r="507" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A507"/>
       <c r="B507" s="7" t="s">
         <v>35</v>
@@ -15995,7 +15996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:10" s="5" customFormat="1">
+    <row r="508" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A508"/>
       <c r="B508" s="25" t="s">
         <v>35</v>
@@ -16025,7 +16026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" spans="1:10" s="5" customFormat="1">
+    <row r="509" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A509"/>
       <c r="B509" s="2" t="s">
         <v>35</v>
@@ -16055,7 +16056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:10" s="5" customFormat="1">
+    <row r="510" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A510"/>
       <c r="B510" s="7" t="s">
         <v>36</v>
@@ -16085,7 +16086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:10" s="5" customFormat="1">
+    <row r="511" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A511"/>
       <c r="B511" s="25" t="s">
         <v>36</v>
@@ -16115,7 +16116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="1:10" s="5" customFormat="1">
+    <row r="512" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A512"/>
       <c r="B512" s="2" t="s">
         <v>36</v>
@@ -16145,7 +16146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:10" s="5" customFormat="1">
+    <row r="513" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A513"/>
       <c r="B513" s="7" t="s">
         <v>37</v>
@@ -16175,7 +16176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:10" s="5" customFormat="1">
+    <row r="514" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A514"/>
       <c r="B514" s="25" t="s">
         <v>37</v>
@@ -16205,7 +16206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:10" s="5" customFormat="1">
+    <row r="515" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A515"/>
       <c r="B515" s="2" t="s">
         <v>37</v>
@@ -16235,7 +16236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:10" s="5" customFormat="1">
+    <row r="516" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A516"/>
       <c r="B516" s="7" t="s">
         <v>38</v>
@@ -16265,7 +16266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:10" s="5" customFormat="1">
+    <row r="517" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A517"/>
       <c r="B517" s="25" t="s">
         <v>38</v>
@@ -16295,7 +16296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:10" s="5" customFormat="1">
+    <row r="518" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A518"/>
       <c r="B518" s="2" t="s">
         <v>38</v>
@@ -16325,7 +16326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:10" s="5" customFormat="1">
+    <row r="519" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A519"/>
       <c r="B519" s="7" t="s">
         <v>39</v>
@@ -16355,7 +16356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:10" s="5" customFormat="1">
+    <row r="520" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A520"/>
       <c r="B520" s="25" t="s">
         <v>39</v>
@@ -16385,7 +16386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:10" s="5" customFormat="1">
+    <row r="521" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A521"/>
       <c r="B521" s="2" t="s">
         <v>39</v>
@@ -16415,7 +16416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:10" s="5" customFormat="1">
+    <row r="522" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A522"/>
       <c r="B522" s="7" t="s">
         <v>40</v>
@@ -16445,7 +16446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="1:10" s="5" customFormat="1">
+    <row r="523" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A523"/>
       <c r="B523" s="25" t="s">
         <v>40</v>
@@ -16475,7 +16476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="1:10" s="5" customFormat="1">
+    <row r="524" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A524"/>
       <c r="B524" s="2" t="s">
         <v>40</v>
@@ -16505,7 +16506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:10" s="5" customFormat="1">
+    <row r="525" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A525"/>
       <c r="B525" s="7" t="s">
         <v>42</v>
@@ -16535,7 +16536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:10" s="5" customFormat="1">
+    <row r="526" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A526"/>
       <c r="B526" s="25" t="s">
         <v>42</v>
@@ -16565,7 +16566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:10" s="5" customFormat="1">
+    <row r="527" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A527"/>
       <c r="B527" s="2" t="s">
         <v>42</v>
@@ -16595,7 +16596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:10" s="5" customFormat="1">
+    <row r="528" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A528"/>
       <c r="B528" s="7" t="s">
         <v>43</v>
@@ -16625,7 +16626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:10" s="5" customFormat="1">
+    <row r="529" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A529"/>
       <c r="B529" s="25" t="s">
         <v>43</v>
@@ -16655,7 +16656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:10" s="5" customFormat="1">
+    <row r="530" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A530"/>
       <c r="B530" s="2" t="s">
         <v>43</v>
@@ -16685,7 +16686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:10" s="5" customFormat="1">
+    <row r="531" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A531"/>
       <c r="B531" s="7" t="s">
         <v>44</v>
@@ -16715,7 +16716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:10" s="5" customFormat="1">
+    <row r="532" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A532"/>
       <c r="B532" s="25" t="s">
         <v>44</v>
@@ -16745,7 +16746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:10" s="5" customFormat="1">
+    <row r="533" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A533"/>
       <c r="B533" s="2" t="s">
         <v>44</v>
@@ -16775,7 +16776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:10" s="5" customFormat="1">
+    <row r="534" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A534"/>
       <c r="B534" s="7" t="s">
         <v>45</v>
@@ -16805,7 +16806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:10" s="5" customFormat="1">
+    <row r="535" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A535"/>
       <c r="B535" s="25" t="s">
         <v>45</v>
@@ -16835,7 +16836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:10" s="5" customFormat="1">
+    <row r="536" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A536"/>
       <c r="B536" s="2" t="s">
         <v>45</v>
@@ -16865,7 +16866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:10" s="5" customFormat="1">
+    <row r="537" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A537"/>
       <c r="B537" s="7" t="s">
         <v>46</v>
@@ -16895,7 +16896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:10" s="5" customFormat="1">
+    <row r="538" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A538"/>
       <c r="B538" s="25" t="s">
         <v>46</v>
@@ -16925,7 +16926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:10" s="5" customFormat="1">
+    <row r="539" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A539"/>
       <c r="B539" s="2" t="s">
         <v>46</v>
@@ -16955,7 +16956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:10" s="5" customFormat="1">
+    <row r="540" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A540"/>
       <c r="B540" s="7" t="s">
         <v>47</v>
@@ -16985,7 +16986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:10" s="5" customFormat="1">
+    <row r="541" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A541"/>
       <c r="B541" s="25" t="s">
         <v>47</v>
@@ -17015,7 +17016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:10" s="5" customFormat="1">
+    <row r="542" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A542"/>
       <c r="B542" s="2" t="s">
         <v>47</v>
@@ -17045,7 +17046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:10" s="5" customFormat="1">
+    <row r="543" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A543"/>
       <c r="B543" s="7" t="s">
         <v>49</v>
@@ -17075,7 +17076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="544" spans="1:10" s="5" customFormat="1">
+    <row r="544" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A544"/>
       <c r="B544" s="25" t="s">
         <v>49</v>
@@ -17105,7 +17106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:11" s="5" customFormat="1">
+    <row r="545" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A545"/>
       <c r="B545" s="2" t="s">
         <v>49</v>
@@ -17135,7 +17136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:11" s="5" customFormat="1">
+    <row r="546" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A546"/>
       <c r="B546" s="7" t="s">
         <v>48</v>
@@ -17165,7 +17166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:11" s="5" customFormat="1">
+    <row r="547" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A547"/>
       <c r="B547" s="25" t="s">
         <v>48</v>
@@ -17195,7 +17196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:11" s="5" customFormat="1">
+    <row r="548" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A548"/>
       <c r="B548" s="2" t="s">
         <v>48</v>
@@ -17226,7 +17227,7 @@
       </c>
       <c r="K548" s="6"/>
     </row>
-    <row r="549" spans="1:11" s="5" customFormat="1">
+    <row r="549" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A549"/>
       <c r="B549" s="7" t="s">
         <v>41</v>
@@ -17257,7 +17258,7 @@
       </c>
       <c r="K549" s="6"/>
     </row>
-    <row r="550" spans="1:11" s="5" customFormat="1">
+    <row r="550" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A550"/>
       <c r="B550" s="25" t="s">
         <v>41</v>
@@ -17288,7 +17289,7 @@
       </c>
       <c r="K550" s="6"/>
     </row>
-    <row r="551" spans="1:11" s="5" customFormat="1">
+    <row r="551" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A551"/>
       <c r="B551" s="2" t="s">
         <v>41</v>
@@ -17319,7 +17320,7 @@
       </c>
       <c r="K551" s="6"/>
     </row>
-    <row r="552" spans="1:11" s="5" customFormat="1">
+    <row r="552" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A552" s="13"/>
       <c r="B552" s="14" t="s">
         <v>50</v>
@@ -17350,7 +17351,7 @@
       </c>
       <c r="K552" s="6"/>
     </row>
-    <row r="553" spans="1:11" s="5" customFormat="1">
+    <row r="553" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A553" s="13"/>
       <c r="B553" s="14" t="s">
         <v>50</v>
@@ -17381,7 +17382,7 @@
       </c>
       <c r="K553" s="6"/>
     </row>
-    <row r="554" spans="1:11" s="5" customFormat="1">
+    <row r="554" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A554" s="13"/>
       <c r="B554" s="14" t="s">
         <v>50</v>
@@ -17412,7 +17413,7 @@
       </c>
       <c r="K554" s="6"/>
     </row>
-    <row r="555" spans="1:11" s="5" customFormat="1">
+    <row r="555" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A555" s="13"/>
       <c r="B555" s="14" t="s">
         <v>50</v>
@@ -17443,7 +17444,7 @@
       </c>
       <c r="K555" s="6"/>
     </row>
-    <row r="556" spans="1:11" s="5" customFormat="1">
+    <row r="556" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A556"/>
       <c r="B556" s="14" t="s">
         <v>50</v>
@@ -17474,7 +17475,7 @@
       </c>
       <c r="K556" s="6"/>
     </row>
-    <row r="557" spans="1:11" s="5" customFormat="1">
+    <row r="557" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A557"/>
       <c r="B557" s="14" t="s">
         <v>50</v>
@@ -17505,7 +17506,7 @@
       </c>
       <c r="K557" s="6"/>
     </row>
-    <row r="558" spans="1:11" s="5" customFormat="1">
+    <row r="558" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A558"/>
       <c r="B558" s="7" t="s">
         <v>51</v>
@@ -17536,7 +17537,7 @@
       </c>
       <c r="K558" s="6"/>
     </row>
-    <row r="559" spans="1:11" s="5" customFormat="1">
+    <row r="559" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A559"/>
       <c r="B559" s="2" t="s">
         <v>51</v>
@@ -17566,7 +17567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="560" spans="1:11" s="5" customFormat="1">
+    <row r="560" spans="1:11" s="5" customFormat="1" hidden="1">
       <c r="A560"/>
       <c r="B560" s="7" t="s">
         <v>51</v>
@@ -17596,7 +17597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:10" s="5" customFormat="1">
+    <row r="561" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A561"/>
       <c r="B561" s="2" t="s">
         <v>51</v>
@@ -17626,7 +17627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:10" s="5" customFormat="1">
+    <row r="562" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A562"/>
       <c r="B562" s="7" t="s">
         <v>51</v>
@@ -17656,7 +17657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:10" s="5" customFormat="1">
+    <row r="563" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A563"/>
       <c r="B563" s="2" t="s">
         <v>51</v>
@@ -17686,7 +17687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="564" spans="1:10" s="5" customFormat="1">
+    <row r="564" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A564"/>
       <c r="B564" s="7" t="s">
         <v>51</v>
@@ -17716,7 +17717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:10" s="5" customFormat="1">
+    <row r="565" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A565"/>
       <c r="B565" s="2" t="s">
         <v>51</v>
@@ -17746,7 +17747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:10" s="5" customFormat="1">
+    <row r="566" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A566"/>
       <c r="B566" s="7" t="s">
         <v>51</v>
@@ -17776,7 +17777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:10" s="5" customFormat="1">
+    <row r="567" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A567"/>
       <c r="B567" s="2" t="s">
         <v>51</v>
@@ -17806,7 +17807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="568" spans="1:10" s="5" customFormat="1">
+    <row r="568" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A568"/>
       <c r="B568" s="7" t="s">
         <v>51</v>
@@ -17836,7 +17837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:10" s="5" customFormat="1">
+    <row r="569" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A569"/>
       <c r="B569" s="2" t="s">
         <v>51</v>
@@ -17866,7 +17867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:10" s="5" customFormat="1">
+    <row r="570" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A570"/>
       <c r="B570" s="7" t="s">
         <v>52</v>
@@ -17896,7 +17897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:10" s="5" customFormat="1">
+    <row r="571" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A571"/>
       <c r="B571" s="2" t="s">
         <v>52</v>
@@ -17926,7 +17927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="572" spans="1:10" s="5" customFormat="1">
+    <row r="572" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A572"/>
       <c r="B572" s="7" t="s">
         <v>52</v>
@@ -17956,7 +17957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:10" s="5" customFormat="1">
+    <row r="573" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A573"/>
       <c r="B573" s="2" t="s">
         <v>52</v>
@@ -17986,7 +17987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:10" s="5" customFormat="1">
+    <row r="574" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A574"/>
       <c r="B574" s="7" t="s">
         <v>52</v>
@@ -18016,7 +18017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:10" s="5" customFormat="1">
+    <row r="575" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A575"/>
       <c r="B575" s="2" t="s">
         <v>52</v>
@@ -18046,7 +18047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:10" s="5" customFormat="1">
+    <row r="576" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A576"/>
       <c r="B576" s="7" t="s">
         <v>52</v>
@@ -18076,7 +18077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:10" s="5" customFormat="1">
+    <row r="577" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A577"/>
       <c r="B577" s="2" t="s">
         <v>52</v>
@@ -18106,7 +18107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:10" s="5" customFormat="1">
+    <row r="578" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A578"/>
       <c r="B578" s="7" t="s">
         <v>52</v>
@@ -18136,7 +18137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:10" s="5" customFormat="1">
+    <row r="579" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A579"/>
       <c r="B579" s="2" t="s">
         <v>52</v>
@@ -18166,7 +18167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="580" spans="1:10" s="5" customFormat="1">
+    <row r="580" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A580"/>
       <c r="B580" s="7" t="s">
         <v>52</v>
@@ -18196,7 +18197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="1:10" s="5" customFormat="1">
+    <row r="581" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A581"/>
       <c r="B581" s="2" t="s">
         <v>52</v>
@@ -18226,7 +18227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:10" s="5" customFormat="1">
+    <row r="582" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A582"/>
       <c r="B582" s="7" t="s">
         <v>53</v>
@@ -18256,7 +18257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="583" spans="1:10" s="5" customFormat="1">
+    <row r="583" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A583"/>
       <c r="B583" s="2" t="s">
         <v>53</v>
@@ -18286,7 +18287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="584" spans="1:10" s="5" customFormat="1">
+    <row r="584" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A584"/>
       <c r="B584" s="7" t="s">
         <v>53</v>
@@ -18316,7 +18317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:10" s="5" customFormat="1">
+    <row r="585" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A585"/>
       <c r="B585" s="2" t="s">
         <v>53</v>
@@ -18346,7 +18347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:10" s="5" customFormat="1">
+    <row r="586" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A586"/>
       <c r="B586" s="7" t="s">
         <v>53</v>
@@ -18376,7 +18377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:10" s="5" customFormat="1">
+    <row r="587" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A587"/>
       <c r="B587" s="2" t="s">
         <v>53</v>
@@ -18406,7 +18407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="588" spans="1:10" s="5" customFormat="1">
+    <row r="588" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A588"/>
       <c r="B588" s="7" t="s">
         <v>53</v>
@@ -18436,7 +18437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:10" s="5" customFormat="1">
+    <row r="589" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A589"/>
       <c r="B589" s="2" t="s">
         <v>53</v>
@@ -18466,7 +18467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:10" s="5" customFormat="1">
+    <row r="590" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A590"/>
       <c r="B590" s="7" t="s">
         <v>53</v>
@@ -18496,7 +18497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:10" s="5" customFormat="1">
+    <row r="591" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A591"/>
       <c r="B591" s="2" t="s">
         <v>53</v>
@@ -18526,7 +18527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="1:10" s="5" customFormat="1">
+    <row r="592" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A592"/>
       <c r="B592" s="7" t="s">
         <v>53</v>
@@ -18556,7 +18557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:10" s="5" customFormat="1">
+    <row r="593" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A593"/>
       <c r="B593" s="2" t="s">
         <v>53</v>
@@ -18586,7 +18587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:10" s="5" customFormat="1">
+    <row r="594" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A594"/>
       <c r="B594" s="7" t="s">
         <v>56</v>
@@ -18616,7 +18617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:10" s="5" customFormat="1">
+    <row r="595" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A595"/>
       <c r="B595" s="2" t="s">
         <v>56</v>
@@ -18646,7 +18647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="596" spans="1:10" s="5" customFormat="1">
+    <row r="596" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A596"/>
       <c r="B596" s="7" t="s">
         <v>56</v>
@@ -18676,7 +18677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:10" s="5" customFormat="1">
+    <row r="597" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A597"/>
       <c r="B597" s="2" t="s">
         <v>56</v>
@@ -18709,13 +18710,13 @@
     <row r="598" spans="1:10" s="5" customFormat="1">
       <c r="A598"/>
       <c r="B598" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C598" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D598" s="8">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="E598" s="8">
         <v>999999999.99000001</v>
@@ -18739,13 +18740,13 @@
     <row r="599" spans="1:10" s="5" customFormat="1">
       <c r="A599"/>
       <c r="B599" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D599" s="3">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="E599" s="3">
         <v>999999999.99000001</v>
@@ -18769,13 +18770,13 @@
     <row r="600" spans="1:10" s="5" customFormat="1">
       <c r="A600"/>
       <c r="B600" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C600" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D600" s="8">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="E600" s="8">
         <v>999999999.99000001</v>
@@ -18799,7 +18800,7 @@
     <row r="601" spans="1:10" s="5" customFormat="1">
       <c r="A601"/>
       <c r="B601" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>55</v>
@@ -18808,7 +18809,7 @@
         <v>0</v>
       </c>
       <c r="E601" s="3">
-        <v>69999.990000000005</v>
+        <v>39999.99</v>
       </c>
       <c r="F601" s="2">
         <v>0</v>
@@ -18826,10 +18827,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:10" s="5" customFormat="1">
+    <row r="602" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A602"/>
       <c r="B602" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C602" s="7" t="s">
         <v>55</v>
@@ -18856,10 +18857,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="603" spans="1:10" s="5" customFormat="1">
+    <row r="603" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A603"/>
       <c r="B603" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>55</v>
@@ -18886,10 +18887,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:10" s="5" customFormat="1">
+    <row r="604" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A604"/>
       <c r="B604" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C604" s="7" t="s">
         <v>55</v>
@@ -18916,10 +18917,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:10" s="5" customFormat="1">
+    <row r="605" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A605"/>
       <c r="B605" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>55</v>
@@ -18946,10 +18947,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:10" s="5" customFormat="1">
+    <row r="606" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A606"/>
       <c r="B606" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C606" s="7" t="s">
         <v>55</v>
@@ -18976,10 +18977,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:10" s="5" customFormat="1">
+    <row r="607" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A607"/>
       <c r="B607" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>55</v>
@@ -19006,10 +19007,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="608" spans="1:10" s="5" customFormat="1">
+    <row r="608" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A608"/>
       <c r="B608" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C608" s="7" t="s">
         <v>55</v>
@@ -19036,10 +19037,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="1:10" s="5" customFormat="1">
+    <row r="609" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A609"/>
       <c r="B609" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>55</v>
@@ -19066,10 +19067,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:10" s="5" customFormat="1">
+    <row r="610" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A610"/>
       <c r="B610" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C610" s="7" t="s">
         <v>55</v>
@@ -19096,10 +19097,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:10" s="5" customFormat="1">
+    <row r="611" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A611"/>
       <c r="B611" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>55</v>
@@ -19126,10 +19127,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="612" spans="1:10" s="5" customFormat="1">
+    <row r="612" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A612"/>
       <c r="B612" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C612" s="7" t="s">
         <v>55</v>
@@ -19156,10 +19157,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:10" s="5" customFormat="1">
+    <row r="613" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A613"/>
       <c r="B613" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>55</v>
@@ -19186,10 +19187,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:10" s="5" customFormat="1">
+    <row r="614" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A614"/>
       <c r="B614" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C614" s="7" t="s">
         <v>55</v>
@@ -19216,10 +19217,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:10" s="5" customFormat="1">
+    <row r="615" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A615"/>
       <c r="B615" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>55</v>
@@ -19246,10 +19247,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="616" spans="1:10" s="5" customFormat="1">
+    <row r="616" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A616"/>
       <c r="B616" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C616" s="7" t="s">
         <v>55</v>
@@ -19276,10 +19277,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="1:10" s="5" customFormat="1">
+    <row r="617" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A617"/>
       <c r="B617" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>55</v>
@@ -19306,10 +19307,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:10" s="5" customFormat="1">
+    <row r="618" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A618"/>
       <c r="B618" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C618" s="7" t="s">
         <v>55</v>
@@ -19336,10 +19337,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:10" s="5" customFormat="1">
+    <row r="619" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A619"/>
       <c r="B619" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>55</v>
@@ -19366,10 +19367,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="620" spans="1:10" s="5" customFormat="1">
+    <row r="620" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A620"/>
       <c r="B620" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C620" s="7" t="s">
         <v>55</v>
@@ -19396,10 +19397,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="621" spans="1:10" s="5" customFormat="1">
+    <row r="621" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A621"/>
       <c r="B621" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>55</v>
@@ -19426,7 +19427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:10" s="5" customFormat="1">
+    <row r="622" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A622"/>
       <c r="B622" s="7" t="s">
         <v>12</v>
@@ -19456,7 +19457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:10" s="5" customFormat="1">
+    <row r="623" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A623"/>
       <c r="B623" s="2" t="s">
         <v>12</v>
@@ -19486,7 +19487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:10" s="5" customFormat="1">
+    <row r="624" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A624"/>
       <c r="B624" s="7" t="s">
         <v>13</v>
@@ -19516,7 +19517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:10" s="5" customFormat="1">
+    <row r="625" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A625"/>
       <c r="B625" s="2" t="s">
         <v>13</v>
@@ -19546,7 +19547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:10" s="5" customFormat="1">
+    <row r="626" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A626"/>
       <c r="B626" s="7" t="s">
         <v>14</v>
@@ -19576,7 +19577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:10" s="5" customFormat="1">
+    <row r="627" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A627"/>
       <c r="B627" s="2" t="s">
         <v>14</v>
@@ -19606,7 +19607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:10" s="5" customFormat="1">
+    <row r="628" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A628"/>
       <c r="B628" s="7" t="s">
         <v>15</v>
@@ -19636,7 +19637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:10" s="5" customFormat="1">
+    <row r="629" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A629"/>
       <c r="B629" s="2" t="s">
         <v>15</v>
@@ -19666,10 +19667,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:10" s="5" customFormat="1">
+    <row r="630" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A630"/>
       <c r="B630" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C630" s="10" t="s">
         <v>57</v>
@@ -19696,10 +19697,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:10" s="5" customFormat="1">
+    <row r="631" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A631"/>
       <c r="B631" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C631" s="10" t="s">
         <v>57</v>
@@ -19726,10 +19727,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:10" s="5" customFormat="1">
+    <row r="632" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A632"/>
       <c r="B632" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C632" s="10" t="s">
         <v>57</v>
@@ -19756,10 +19757,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:10" s="5" customFormat="1">
+    <row r="633" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A633"/>
       <c r="B633" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C633" s="10" t="s">
         <v>57</v>
@@ -19786,10 +19787,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="634" spans="1:10" s="5" customFormat="1">
+    <row r="634" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A634"/>
       <c r="B634" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C634" s="10" t="s">
         <v>57</v>
@@ -19816,10 +19817,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:10" s="5" customFormat="1">
+    <row r="635" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A635"/>
       <c r="B635" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C635" s="10" t="s">
         <v>57</v>
@@ -19846,10 +19847,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="636" spans="1:10" s="5" customFormat="1">
+    <row r="636" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A636"/>
       <c r="B636" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C636" s="10" t="s">
         <v>57</v>
@@ -19876,10 +19877,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:10" s="5" customFormat="1">
+    <row r="637" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A637"/>
       <c r="B637" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C637" s="10" t="s">
         <v>57</v>
@@ -19906,7 +19907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="638" spans="1:10" s="5" customFormat="1">
+    <row r="638" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A638"/>
       <c r="B638" s="7" t="s">
         <v>12</v>
@@ -19936,7 +19937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:10" s="5" customFormat="1">
+    <row r="639" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A639"/>
       <c r="B639" s="2" t="s">
         <v>12</v>
@@ -19966,7 +19967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:10" s="5" customFormat="1">
+    <row r="640" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A640"/>
       <c r="B640" s="7" t="s">
         <v>13</v>
@@ -19996,7 +19997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:10" s="5" customFormat="1">
+    <row r="641" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A641"/>
       <c r="B641" s="2" t="s">
         <v>13</v>
@@ -20026,7 +20027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="642" spans="1:10" s="5" customFormat="1">
+    <row r="642" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A642"/>
       <c r="B642" s="7" t="s">
         <v>14</v>
@@ -20056,7 +20057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="643" spans="1:10" s="5" customFormat="1">
+    <row r="643" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A643"/>
       <c r="B643" s="2" t="s">
         <v>14</v>
@@ -20086,7 +20087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="644" spans="1:10" s="5" customFormat="1">
+    <row r="644" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A644"/>
       <c r="B644" s="7" t="s">
         <v>15</v>
@@ -20116,7 +20117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:10" s="5" customFormat="1">
+    <row r="645" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A645"/>
       <c r="B645" s="2" t="s">
         <v>15</v>
@@ -20146,10 +20147,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="646" spans="1:10" s="5" customFormat="1">
+    <row r="646" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A646"/>
       <c r="B646" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C646" s="10" t="s">
         <v>57</v>
@@ -20176,10 +20177,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="647" spans="1:10" s="5" customFormat="1">
+    <row r="647" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A647"/>
       <c r="B647" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C647" s="10" t="s">
         <v>57</v>
@@ -20206,10 +20207,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="648" spans="1:10" s="5" customFormat="1">
+    <row r="648" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A648"/>
       <c r="B648" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C648" s="10" t="s">
         <v>57</v>
@@ -20236,10 +20237,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:10" s="5" customFormat="1">
+    <row r="649" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A649"/>
       <c r="B649" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C649" s="10" t="s">
         <v>57</v>
@@ -20266,10 +20267,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="650" spans="1:10" s="5" customFormat="1">
+    <row r="650" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A650"/>
       <c r="B650" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C650" s="10" t="s">
         <v>57</v>
@@ -20296,10 +20297,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:10" s="5" customFormat="1">
+    <row r="651" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A651"/>
       <c r="B651" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C651" s="10" t="s">
         <v>57</v>
@@ -20326,10 +20327,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="652" spans="1:10" s="5" customFormat="1">
+    <row r="652" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A652"/>
       <c r="B652" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C652" s="10" t="s">
         <v>57</v>
@@ -20356,10 +20357,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="653" spans="1:10" s="5" customFormat="1">
+    <row r="653" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A653"/>
       <c r="B653" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C653" s="10" t="s">
         <v>57</v>
@@ -20386,7 +20387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="654" spans="1:10" s="5" customFormat="1">
+    <row r="654" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A654"/>
       <c r="B654" s="7" t="s">
         <v>16</v>
@@ -20416,7 +20417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655" spans="1:10" s="5" customFormat="1">
+    <row r="655" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A655"/>
       <c r="B655" s="2" t="s">
         <v>16</v>
@@ -20446,7 +20447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="1:10" s="5" customFormat="1">
+    <row r="656" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A656"/>
       <c r="B656" s="7" t="s">
         <v>16</v>
@@ -20476,7 +20477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="657" spans="1:10" s="5" customFormat="1">
+    <row r="657" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A657"/>
       <c r="B657" s="2" t="s">
         <v>17</v>
@@ -20506,7 +20507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:10" s="5" customFormat="1">
+    <row r="658" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A658"/>
       <c r="B658" s="7" t="s">
         <v>17</v>
@@ -20536,7 +20537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:10" s="5" customFormat="1">
+    <row r="659" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A659"/>
       <c r="B659" s="2" t="s">
         <v>17</v>
@@ -20566,7 +20567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="660" spans="1:10" s="5" customFormat="1">
+    <row r="660" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A660"/>
       <c r="B660" s="7" t="s">
         <v>18</v>
@@ -20596,7 +20597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:10" s="5" customFormat="1">
+    <row r="661" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A661"/>
       <c r="B661" s="2" t="s">
         <v>18</v>
@@ -20626,7 +20627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:10" s="5" customFormat="1">
+    <row r="662" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A662"/>
       <c r="B662" s="7" t="s">
         <v>18</v>
@@ -20656,7 +20657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="663" spans="1:10" s="5" customFormat="1">
+    <row r="663" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A663"/>
       <c r="B663" s="2" t="s">
         <v>19</v>
@@ -20686,7 +20687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:10" s="5" customFormat="1">
+    <row r="664" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A664"/>
       <c r="B664" s="7" t="s">
         <v>19</v>
@@ -20716,7 +20717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:10" s="5" customFormat="1">
+    <row r="665" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A665"/>
       <c r="B665" s="2" t="s">
         <v>19</v>
@@ -20746,7 +20747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="666" spans="1:10" s="5" customFormat="1">
+    <row r="666" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A666"/>
       <c r="B666" s="7" t="s">
         <v>20</v>
@@ -20776,7 +20777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="667" spans="1:10" s="5" customFormat="1">
+    <row r="667" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A667"/>
       <c r="B667" s="2" t="s">
         <v>20</v>
@@ -20806,7 +20807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:10" s="5" customFormat="1">
+    <row r="668" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A668"/>
       <c r="B668" s="7" t="s">
         <v>20</v>
@@ -20836,7 +20837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="669" spans="1:10" s="5" customFormat="1">
+    <row r="669" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A669"/>
       <c r="B669" s="2" t="s">
         <v>21</v>
@@ -20866,7 +20867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:10" s="5" customFormat="1">
+    <row r="670" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A670"/>
       <c r="B670" s="7" t="s">
         <v>21</v>
@@ -20896,7 +20897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:10" s="5" customFormat="1">
+    <row r="671" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A671"/>
       <c r="B671" s="2" t="s">
         <v>21</v>
@@ -20926,7 +20927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="672" spans="1:10" s="5" customFormat="1">
+    <row r="672" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A672"/>
       <c r="B672" s="7" t="s">
         <v>22</v>
@@ -20956,7 +20957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:10" s="5" customFormat="1">
+    <row r="673" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A673"/>
       <c r="B673" s="2" t="s">
         <v>22</v>
@@ -20986,7 +20987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" spans="1:10" s="5" customFormat="1">
+    <row r="674" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A674"/>
       <c r="B674" s="7" t="s">
         <v>22</v>
@@ -21016,7 +21017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="675" spans="1:10" s="5" customFormat="1">
+    <row r="675" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A675"/>
       <c r="B675" s="2" t="s">
         <v>23</v>
@@ -21046,7 +21047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:10" s="5" customFormat="1">
+    <row r="676" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A676"/>
       <c r="B676" s="7" t="s">
         <v>23</v>
@@ -21076,7 +21077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:10" s="5" customFormat="1">
+    <row r="677" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A677"/>
       <c r="B677" s="2" t="s">
         <v>23</v>
@@ -21106,7 +21107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="678" spans="1:10" s="5" customFormat="1">
+    <row r="678" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A678"/>
       <c r="B678" s="7" t="s">
         <v>24</v>
@@ -21136,7 +21137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="679" spans="1:10" s="5" customFormat="1">
+    <row r="679" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A679"/>
       <c r="B679" s="2" t="s">
         <v>24</v>
@@ -21166,7 +21167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="680" spans="1:10" s="5" customFormat="1">
+    <row r="680" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A680"/>
       <c r="B680" s="7" t="s">
         <v>24</v>
@@ -21196,7 +21197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="681" spans="1:10" s="5" customFormat="1">
+    <row r="681" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A681"/>
       <c r="B681" s="2" t="s">
         <v>25</v>
@@ -21226,7 +21227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:10" s="5" customFormat="1">
+    <row r="682" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A682"/>
       <c r="B682" s="7" t="s">
         <v>25</v>
@@ -21256,7 +21257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:10" s="5" customFormat="1">
+    <row r="683" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A683"/>
       <c r="B683" s="2" t="s">
         <v>25</v>
@@ -21286,7 +21287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="684" spans="1:10" s="5" customFormat="1">
+    <row r="684" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A684"/>
       <c r="B684" s="7" t="s">
         <v>26</v>
@@ -21316,7 +21317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="685" spans="1:10" s="5" customFormat="1">
+    <row r="685" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A685"/>
       <c r="B685" s="2" t="s">
         <v>26</v>
@@ -21346,7 +21347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:10" s="5" customFormat="1">
+    <row r="686" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A686"/>
       <c r="B686" s="7" t="s">
         <v>26</v>
@@ -21376,7 +21377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="687" spans="1:10" s="5" customFormat="1">
+    <row r="687" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A687"/>
       <c r="B687" s="2" t="s">
         <v>27</v>
@@ -21406,7 +21407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688" spans="1:10" s="5" customFormat="1">
+    <row r="688" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A688"/>
       <c r="B688" s="7" t="s">
         <v>27</v>
@@ -21436,7 +21437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:10" s="5" customFormat="1">
+    <row r="689" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A689"/>
       <c r="B689" s="2" t="s">
         <v>27</v>
@@ -21466,7 +21467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="690" spans="1:10" s="5" customFormat="1">
+    <row r="690" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A690"/>
       <c r="B690" s="7" t="s">
         <v>28</v>
@@ -21496,7 +21497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="691" spans="1:10" s="5" customFormat="1">
+    <row r="691" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A691"/>
       <c r="B691" s="2" t="s">
         <v>28</v>
@@ -21526,7 +21527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:10" s="5" customFormat="1">
+    <row r="692" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A692"/>
       <c r="B692" s="7" t="s">
         <v>28</v>
@@ -21556,7 +21557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="693" spans="1:10" s="5" customFormat="1">
+    <row r="693" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A693"/>
       <c r="B693" s="2" t="s">
         <v>29</v>
@@ -21586,7 +21587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:10" s="5" customFormat="1">
+    <row r="694" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A694"/>
       <c r="B694" s="7" t="s">
         <v>29</v>
@@ -21616,7 +21617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:10" s="5" customFormat="1">
+    <row r="695" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A695"/>
       <c r="B695" s="2" t="s">
         <v>29</v>
@@ -21646,7 +21647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="696" spans="1:10" s="5" customFormat="1">
+    <row r="696" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A696"/>
       <c r="B696" s="7" t="s">
         <v>31</v>
@@ -21676,7 +21677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="697" spans="1:10" s="5" customFormat="1">
+    <row r="697" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A697"/>
       <c r="B697" s="2" t="s">
         <v>31</v>
@@ -21706,7 +21707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="698" spans="1:10" s="5" customFormat="1">
+    <row r="698" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A698"/>
       <c r="B698" s="7" t="s">
         <v>31</v>
@@ -21736,7 +21737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="699" spans="1:10" s="5" customFormat="1">
+    <row r="699" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A699"/>
       <c r="B699" s="2" t="s">
         <v>30</v>
@@ -21766,7 +21767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="1:10" s="5" customFormat="1">
+    <row r="700" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A700"/>
       <c r="B700" s="7" t="s">
         <v>30</v>
@@ -21796,7 +21797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:10" s="5" customFormat="1">
+    <row r="701" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A701"/>
       <c r="B701" s="2" t="s">
         <v>30</v>
@@ -21826,7 +21827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="702" spans="1:10" s="5" customFormat="1">
+    <row r="702" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A702"/>
       <c r="B702" s="7" t="s">
         <v>32</v>
@@ -21856,7 +21857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="703" spans="1:10" s="5" customFormat="1">
+    <row r="703" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A703"/>
       <c r="B703" s="2" t="s">
         <v>32</v>
@@ -21886,7 +21887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:10" s="5" customFormat="1">
+    <row r="704" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A704"/>
       <c r="B704" s="7" t="s">
         <v>32</v>
@@ -21916,7 +21917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="705" spans="1:10" s="5" customFormat="1">
+    <row r="705" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A705"/>
       <c r="B705" s="2" t="s">
         <v>33</v>
@@ -21946,7 +21947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="706" spans="1:10" s="5" customFormat="1">
+    <row r="706" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A706"/>
       <c r="B706" s="7" t="s">
         <v>33</v>
@@ -21976,7 +21977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="707" spans="1:10" s="5" customFormat="1">
+    <row r="707" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A707"/>
       <c r="B707" s="2" t="s">
         <v>34</v>
@@ -22006,7 +22007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:10" s="5" customFormat="1">
+    <row r="708" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A708"/>
       <c r="B708" s="7" t="s">
         <v>34</v>
@@ -22036,7 +22037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="709" spans="1:10" s="5" customFormat="1">
+    <row r="709" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A709"/>
       <c r="B709" s="2" t="s">
         <v>35</v>
@@ -22066,7 +22067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:10" s="5" customFormat="1">
+    <row r="710" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A710"/>
       <c r="B710" s="7" t="s">
         <v>35</v>
@@ -22096,7 +22097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="711" spans="1:10" s="5" customFormat="1">
+    <row r="711" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A711"/>
       <c r="B711" s="2" t="s">
         <v>36</v>
@@ -22126,7 +22127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="1:10" s="5" customFormat="1">
+    <row r="712" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A712"/>
       <c r="B712" s="7" t="s">
         <v>36</v>
@@ -22156,7 +22157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="713" spans="1:10" s="5" customFormat="1">
+    <row r="713" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A713"/>
       <c r="B713" s="2" t="s">
         <v>37</v>
@@ -22186,7 +22187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="1:10" s="5" customFormat="1">
+    <row r="714" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A714"/>
       <c r="B714" s="7" t="s">
         <v>37</v>
@@ -22216,7 +22217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="715" spans="1:10" s="5" customFormat="1">
+    <row r="715" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A715"/>
       <c r="B715" s="2" t="s">
         <v>38</v>
@@ -22246,7 +22247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="716" spans="1:10" s="5" customFormat="1">
+    <row r="716" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A716"/>
       <c r="B716" s="7" t="s">
         <v>38</v>
@@ -22276,7 +22277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="717" spans="1:10" s="5" customFormat="1">
+    <row r="717" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A717"/>
       <c r="B717" s="2" t="s">
         <v>39</v>
@@ -22306,7 +22307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="718" spans="1:10" s="5" customFormat="1">
+    <row r="718" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A718"/>
       <c r="B718" s="7" t="s">
         <v>39</v>
@@ -22336,7 +22337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="719" spans="1:10" s="5" customFormat="1">
+    <row r="719" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A719"/>
       <c r="B719" s="2" t="s">
         <v>40</v>
@@ -22366,7 +22367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="1:10" s="5" customFormat="1">
+    <row r="720" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A720"/>
       <c r="B720" s="7" t="s">
         <v>40</v>
@@ -22396,7 +22397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="721" spans="1:10" s="5" customFormat="1">
+    <row r="721" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A721"/>
       <c r="B721" s="2" t="s">
         <v>42</v>
@@ -22426,7 +22427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:10" s="5" customFormat="1">
+    <row r="722" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A722"/>
       <c r="B722" s="7" t="s">
         <v>42</v>
@@ -22456,7 +22457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="723" spans="1:10" s="5" customFormat="1">
+    <row r="723" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A723"/>
       <c r="B723" s="2" t="s">
         <v>43</v>
@@ -22486,7 +22487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="724" spans="1:10" s="5" customFormat="1">
+    <row r="724" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A724"/>
       <c r="B724" s="7" t="s">
         <v>43</v>
@@ -22516,7 +22517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="725" spans="1:10" s="5" customFormat="1">
+    <row r="725" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A725"/>
       <c r="B725" s="2" t="s">
         <v>44</v>
@@ -22546,7 +22547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="726" spans="1:10" s="5" customFormat="1">
+    <row r="726" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A726"/>
       <c r="B726" s="7" t="s">
         <v>44</v>
@@ -22576,7 +22577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="727" spans="1:10" s="5" customFormat="1">
+    <row r="727" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A727"/>
       <c r="B727" s="2" t="s">
         <v>45</v>
@@ -22606,7 +22607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="728" spans="1:10" s="5" customFormat="1">
+    <row r="728" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A728"/>
       <c r="B728" s="7" t="s">
         <v>45</v>
@@ -22636,7 +22637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="729" spans="1:10" s="5" customFormat="1">
+    <row r="729" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A729"/>
       <c r="B729" s="2" t="s">
         <v>46</v>
@@ -22666,7 +22667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:10" s="5" customFormat="1">
+    <row r="730" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A730"/>
       <c r="B730" s="7" t="s">
         <v>46</v>
@@ -22696,7 +22697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="731" spans="1:10" s="5" customFormat="1">
+    <row r="731" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A731"/>
       <c r="B731" s="2" t="s">
         <v>47</v>
@@ -22726,7 +22727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="732" spans="1:10" s="5" customFormat="1">
+    <row r="732" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A732"/>
       <c r="B732" s="7" t="s">
         <v>47</v>
@@ -22756,7 +22757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="733" spans="1:10" s="5" customFormat="1">
+    <row r="733" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A733"/>
       <c r="B733" s="2" t="s">
         <v>49</v>
@@ -22786,7 +22787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:10" s="5" customFormat="1">
+    <row r="734" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A734"/>
       <c r="B734" s="7" t="s">
         <v>49</v>
@@ -22816,7 +22817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="735" spans="1:10" s="5" customFormat="1">
+    <row r="735" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A735"/>
       <c r="B735" s="2" t="s">
         <v>48</v>
@@ -22846,7 +22847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="736" spans="1:10" s="5" customFormat="1">
+    <row r="736" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A736"/>
       <c r="B736" s="7" t="s">
         <v>48</v>
@@ -22876,7 +22877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="737" spans="1:10" s="5" customFormat="1">
+    <row r="737" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A737"/>
       <c r="B737" s="2" t="s">
         <v>41</v>
@@ -22906,7 +22907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="1:10" s="5" customFormat="1">
+    <row r="738" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A738"/>
       <c r="B738" s="7" t="s">
         <v>41</v>
@@ -22936,7 +22937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="739" spans="1:10" s="5" customFormat="1">
+    <row r="739" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A739"/>
       <c r="B739" s="14" t="s">
         <v>50</v>
@@ -22966,7 +22967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="740" spans="1:10" s="5" customFormat="1">
+    <row r="740" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A740"/>
       <c r="B740" s="14" t="s">
         <v>50</v>
@@ -22996,7 +22997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="741" spans="1:10" s="5" customFormat="1">
+    <row r="741" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A741"/>
       <c r="B741" s="2" t="s">
         <v>51</v>
@@ -23026,7 +23027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="742" spans="1:10" s="5" customFormat="1">
+    <row r="742" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A742"/>
       <c r="B742" s="7" t="s">
         <v>51</v>
@@ -23056,7 +23057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="743" spans="1:10" s="5" customFormat="1">
+    <row r="743" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A743"/>
       <c r="B743" s="2" t="s">
         <v>51</v>
@@ -23086,7 +23087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:10" s="5" customFormat="1">
+    <row r="744" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A744"/>
       <c r="B744" s="7" t="s">
         <v>51</v>
@@ -23116,7 +23117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="745" spans="1:10" s="5" customFormat="1">
+    <row r="745" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A745"/>
       <c r="B745" s="2" t="s">
         <v>51</v>
@@ -23146,7 +23147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="746" spans="1:10" s="5" customFormat="1">
+    <row r="746" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A746"/>
       <c r="B746" s="7" t="s">
         <v>51</v>
@@ -23176,7 +23177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="747" spans="1:10" s="5" customFormat="1">
+    <row r="747" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A747"/>
       <c r="B747" s="2" t="s">
         <v>51</v>
@@ -23206,7 +23207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="748" spans="1:10" s="5" customFormat="1">
+    <row r="748" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A748"/>
       <c r="B748" s="7" t="s">
         <v>51</v>
@@ -23236,7 +23237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="749" spans="1:10" s="5" customFormat="1">
+    <row r="749" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A749"/>
       <c r="B749" s="2" t="s">
         <v>51</v>
@@ -23266,7 +23267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="750" spans="1:10" s="5" customFormat="1">
+    <row r="750" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A750"/>
       <c r="B750" s="7" t="s">
         <v>51</v>
@@ -23296,7 +23297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="751" spans="1:10" s="5" customFormat="1">
+    <row r="751" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A751"/>
       <c r="B751" s="2" t="s">
         <v>51</v>
@@ -23326,7 +23327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="752" spans="1:10" s="5" customFormat="1">
+    <row r="752" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A752"/>
       <c r="B752" s="7" t="s">
         <v>51</v>
@@ -23356,7 +23357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="753" spans="1:10" s="5" customFormat="1">
+    <row r="753" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A753"/>
       <c r="B753" s="2" t="s">
         <v>52</v>
@@ -23386,7 +23387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="1:10" s="5" customFormat="1">
+    <row r="754" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A754"/>
       <c r="B754" s="7" t="s">
         <v>52</v>
@@ -23416,7 +23417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:10" s="5" customFormat="1">
+    <row r="755" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A755"/>
       <c r="B755" s="2" t="s">
         <v>52</v>
@@ -23446,7 +23447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="756" spans="1:10" s="5" customFormat="1">
+    <row r="756" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A756"/>
       <c r="B756" s="7" t="s">
         <v>52</v>
@@ -23476,7 +23477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="757" spans="1:10" s="5" customFormat="1">
+    <row r="757" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A757"/>
       <c r="B757" s="2" t="s">
         <v>52</v>
@@ -23506,7 +23507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="758" spans="1:10" s="5" customFormat="1">
+    <row r="758" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A758"/>
       <c r="B758" s="7" t="s">
         <v>52</v>
@@ -23536,7 +23537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:10" s="5" customFormat="1">
+    <row r="759" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A759"/>
       <c r="B759" s="2" t="s">
         <v>52</v>
@@ -23566,7 +23567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:10" s="5" customFormat="1">
+    <row r="760" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A760"/>
       <c r="B760" s="7" t="s">
         <v>52</v>
@@ -23596,7 +23597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="761" spans="1:10" s="5" customFormat="1">
+    <row r="761" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A761"/>
       <c r="B761" s="2" t="s">
         <v>52</v>
@@ -23626,7 +23627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:10" s="5" customFormat="1">
+    <row r="762" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A762"/>
       <c r="B762" s="7" t="s">
         <v>52</v>
@@ -23656,7 +23657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:10" s="5" customFormat="1">
+    <row r="763" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A763"/>
       <c r="B763" s="2" t="s">
         <v>52</v>
@@ -23686,7 +23687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="764" spans="1:10" s="5" customFormat="1">
+    <row r="764" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A764"/>
       <c r="B764" s="7" t="s">
         <v>52</v>
@@ -23716,7 +23717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="765" spans="1:10" s="5" customFormat="1">
+    <row r="765" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A765"/>
       <c r="B765" s="2" t="s">
         <v>53</v>
@@ -23746,7 +23747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:10" s="5" customFormat="1">
+    <row r="766" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A766"/>
       <c r="B766" s="7" t="s">
         <v>53</v>
@@ -23776,7 +23777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:10" s="5" customFormat="1">
+    <row r="767" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A767"/>
       <c r="B767" s="2" t="s">
         <v>53</v>
@@ -23806,7 +23807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:10" s="5" customFormat="1">
+    <row r="768" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A768"/>
       <c r="B768" s="7" t="s">
         <v>53</v>
@@ -23836,7 +23837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="769" spans="1:10" s="5" customFormat="1">
+    <row r="769" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A769"/>
       <c r="B769" s="2" t="s">
         <v>53</v>
@@ -23866,7 +23867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:10" s="5" customFormat="1">
+    <row r="770" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A770"/>
       <c r="B770" s="7" t="s">
         <v>53</v>
@@ -23896,7 +23897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="771" spans="1:10" s="5" customFormat="1">
+    <row r="771" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A771"/>
       <c r="B771" s="2" t="s">
         <v>53</v>
@@ -23926,7 +23927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="772" spans="1:10" s="5" customFormat="1">
+    <row r="772" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A772"/>
       <c r="B772" s="7" t="s">
         <v>53</v>
@@ -23956,7 +23957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="773" spans="1:10" s="5" customFormat="1">
+    <row r="773" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A773"/>
       <c r="B773" s="2" t="s">
         <v>53</v>
@@ -23986,7 +23987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="774" spans="1:10" s="5" customFormat="1">
+    <row r="774" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A774"/>
       <c r="B774" s="7" t="s">
         <v>53</v>
@@ -24016,7 +24017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="775" spans="1:10" s="5" customFormat="1">
+    <row r="775" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A775"/>
       <c r="B775" s="2" t="s">
         <v>53</v>
@@ -24046,7 +24047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="776" spans="1:10" s="5" customFormat="1">
+    <row r="776" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A776"/>
       <c r="B776" s="7" t="s">
         <v>53</v>
@@ -24076,7 +24077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="777" spans="1:10" s="5" customFormat="1">
+    <row r="777" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A777"/>
       <c r="B777" s="2" t="s">
         <v>56</v>
@@ -24106,7 +24107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:10" s="5" customFormat="1">
+    <row r="778" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A778"/>
       <c r="B778" s="7" t="s">
         <v>56</v>
@@ -24136,7 +24137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="779" spans="1:10" s="5" customFormat="1">
+    <row r="779" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A779"/>
       <c r="B779" s="2" t="s">
         <v>56</v>
@@ -24166,7 +24167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="780" spans="1:10" s="5" customFormat="1">
+    <row r="780" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A780"/>
       <c r="B780" s="7" t="s">
         <v>56</v>
@@ -24199,13 +24200,13 @@
     <row r="781" spans="1:10" s="5" customFormat="1">
       <c r="A781"/>
       <c r="B781" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C781" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D781" s="3">
-        <v>63000</v>
+        <v>36000</v>
       </c>
       <c r="E781" s="3">
         <v>999999999.99000001</v>
@@ -24229,13 +24230,13 @@
     <row r="782" spans="1:10" s="5" customFormat="1">
       <c r="A782"/>
       <c r="B782" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C782" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D782" s="8">
-        <v>63000</v>
+        <v>36000</v>
       </c>
       <c r="E782" s="8">
         <v>999999999.99000001</v>
@@ -24259,13 +24260,13 @@
     <row r="783" spans="1:10" s="5" customFormat="1">
       <c r="A783"/>
       <c r="B783" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D783" s="3">
-        <v>63000</v>
+        <v>36000</v>
       </c>
       <c r="E783" s="3">
         <v>999999999.99000001</v>
@@ -24289,7 +24290,7 @@
     <row r="784" spans="1:10" s="5" customFormat="1">
       <c r="A784"/>
       <c r="B784" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C784" s="7" t="s">
         <v>57</v>
@@ -24298,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="E784" s="8">
-        <v>62999.99</v>
+        <v>35999.99</v>
       </c>
       <c r="F784" s="7">
         <v>0</v>
@@ -24316,10 +24317,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="785" spans="1:10" s="5" customFormat="1">
+    <row r="785" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A785"/>
       <c r="B785" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C785" s="2" t="s">
         <v>57</v>
@@ -24346,10 +24347,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="1:10" s="5" customFormat="1">
+    <row r="786" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A786"/>
       <c r="B786" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C786" s="7" t="s">
         <v>57</v>
@@ -24376,10 +24377,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="787" spans="1:10" s="5" customFormat="1">
+    <row r="787" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A787"/>
       <c r="B787" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>57</v>
@@ -24406,10 +24407,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:10" s="5" customFormat="1">
+    <row r="788" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A788"/>
       <c r="B788" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>57</v>
@@ -24436,10 +24437,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="789" spans="1:10" s="5" customFormat="1">
+    <row r="789" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A789"/>
       <c r="B789" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C789" s="2" t="s">
         <v>57</v>
@@ -24466,10 +24467,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="1:10" s="5" customFormat="1">
+    <row r="790" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A790"/>
       <c r="B790" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C790" s="7" t="s">
         <v>57</v>
@@ -24496,10 +24497,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="791" spans="1:10" s="5" customFormat="1">
+    <row r="791" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A791"/>
       <c r="B791" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>57</v>
@@ -24526,10 +24527,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:10" s="5" customFormat="1">
+    <row r="792" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A792"/>
       <c r="B792" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C792" s="7" t="s">
         <v>57</v>
@@ -24556,10 +24557,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="793" spans="1:10" s="5" customFormat="1">
+    <row r="793" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A793"/>
       <c r="B793" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>57</v>
@@ -24586,10 +24587,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="794" spans="1:10" s="5" customFormat="1">
+    <row r="794" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A794"/>
       <c r="B794" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C794" s="7" t="s">
         <v>57</v>
@@ -24616,10 +24617,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="795" spans="1:10" s="5" customFormat="1">
+    <row r="795" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A795"/>
       <c r="B795" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>57</v>
@@ -24646,10 +24647,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:10" s="5" customFormat="1">
+    <row r="796" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A796"/>
       <c r="B796" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C796" s="7" t="s">
         <v>57</v>
@@ -24676,10 +24677,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="797" spans="1:10" s="5" customFormat="1">
+    <row r="797" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A797"/>
       <c r="B797" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>57</v>
@@ -24706,10 +24707,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="798" spans="1:10" s="5" customFormat="1">
+    <row r="798" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A798"/>
       <c r="B798" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C798" s="7" t="s">
         <v>57</v>
@@ -24736,10 +24737,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="799" spans="1:10" s="5" customFormat="1">
+    <row r="799" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A799"/>
       <c r="B799" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C799" s="2" t="s">
         <v>57</v>
@@ -24766,10 +24767,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:10" s="5" customFormat="1">
+    <row r="800" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A800"/>
       <c r="B800" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C800" s="7" t="s">
         <v>57</v>
@@ -24796,10 +24797,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="801" spans="1:10" s="5" customFormat="1">
+    <row r="801" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A801"/>
       <c r="B801" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>57</v>
@@ -24826,10 +24827,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="802" spans="1:10" s="5" customFormat="1">
+    <row r="802" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A802"/>
       <c r="B802" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C802" s="7" t="s">
         <v>57</v>
@@ -24856,10 +24857,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="803" spans="1:10" s="5" customFormat="1">
+    <row r="803" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A803"/>
       <c r="B803" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>57</v>
@@ -24886,10 +24887,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:10" s="5" customFormat="1">
+    <row r="804" spans="1:10" s="5" customFormat="1" hidden="1">
       <c r="A804"/>
       <c r="B804" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C804" s="7" t="s">
         <v>57</v>
@@ -24917,7 +24918,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J804" xr:uid="{D0369797-3A5F-4311-8564-D70473737AC2}"/>
+  <autoFilter ref="A2:J804" xr:uid="{D0369797-3A5F-4311-8564-D70473737AC2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PR0036"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J152" xr:uid="{0B3E7447-FAD5-4060-A08F-84AFA2A5307F}">
       <formula1>#REF!</formula1>

--- a/filesToRead/Parâmetros de aprovação - Pharmaesthetics v23.xlsx
+++ b/filesToRead/Parâmetros de aprovação - Pharmaesthetics v23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VISUM\sf-massive\filesToRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE5F32B-677C-46FB-94E5-69A6217497B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3013AF9B-B58F-4B16-A8EB-08C5E15D2729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94D39F17-E4C0-4804-BF35-E02219D60F3A}"/>
   </bookViews>
@@ -246,7 +246,7 @@
     <t>Porcentagem de desconto mínima</t>
   </si>
   <si>
-    <t>BUNDLE01</t>
+    <t>PR9999</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E781" sqref="E781"/>
+      <selection pane="bottomRight" activeCell="C813" sqref="C813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
